--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_NOx.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_NOx.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_NOx</t>
+  </si>
+  <si>
+    <t>02_taxi_NOx</t>
+  </si>
+  <si>
+    <t>03_van_NOx</t>
+  </si>
+  <si>
+    <t>04_bus_NOx</t>
+  </si>
+  <si>
+    <t>05_LightTruck_NOx</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_NOx</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_NOx</t>
+  </si>
+  <si>
+    <t>Total_NOx (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1308 +397,1432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_NOx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_NOx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_NOx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_NOx</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_NOx</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_NOx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_NOx (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>494.4220248254979</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.3281741558327689</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.3374256304086338</v>
+      </c>
+      <c r="D2">
         <v>169.9169352591989</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F2">
         <v>185.6954697526834</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>65.09454031511451</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>15.6188620016012</v>
       </c>
-      <c r="H2" t="n">
-        <v>931.0760063099287</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>947.656664304184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>510.6488695786455</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.3623589637320156</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.3725741335761998</v>
+      </c>
+      <c r="D3">
         <v>172.5718873726238</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F3">
         <v>179.2284633433861</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>51.69272319141446</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>14.41741107840111</v>
       </c>
-      <c r="H3" t="n">
-        <v>928.9217135282029</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>945.5033352177265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>517.2720715187062</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.3350111174126182</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.344455331042147</v>
+      </c>
+      <c r="D4">
         <v>175.2268394860488</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>15.65077282414164</v>
+      </c>
+      <c r="F4">
         <v>167.2183085832621</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>51.69272319141446</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>13.21596015520101</v>
       </c>
-      <c r="H4" t="n">
-        <v>924.9609140520453</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>940.6211310898163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>559.3294038380884</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.2803154247738234</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.2882177259740414</v>
+      </c>
+      <c r="D5">
         <v>183.1916958263237</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>26.69837717059456</v>
+      </c>
+      <c r="F5">
         <v>164.446734407849</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>49.77817788802875</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>12.01450923200092</v>
       </c>
-      <c r="H5" t="n">
-        <v>969.0408366170645</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>995.7471160888595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>638.476667021809</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.2666415016141248</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.274158324707015</v>
+      </c>
+      <c r="D6">
         <v>167.2619831457739</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>58.92055651441558</v>
+      </c>
+      <c r="F6">
         <v>138.5787087706593</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>24.88908894401438</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>10.81305830880082</v>
       </c>
-      <c r="H6" t="n">
-        <v>980.2861476926715</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>1039.21422103018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>681.5274796322003</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.1025544236977403</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.1054455095026981</v>
+      </c>
+      <c r="D7">
         <v>114.1629408772742</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>61.68245760102884</v>
+      </c>
+      <c r="F7">
         <v>89.61423167169303</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>24.88908894401438</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>12.01450923200092</v>
       </c>
-      <c r="H7" t="n">
-        <v>922.3108047808805</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>983.9961534677144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>518.596711906718</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.1299022700171377</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.1335643120367509</v>
+      </c>
+      <c r="D8">
         <v>156.642174692074</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>36.82534782150974</v>
+      </c>
+      <c r="F8">
         <v>66.51778020991647</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>22.97454364062866</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>2.402901846400185</v>
       </c>
-      <c r="H8" t="n">
-        <v>767.2640145657546</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>804.0930244292838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>412.9566409627571</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.1367392315969871</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.1405940126702641</v>
+      </c>
+      <c r="D9">
         <v>98.23322819672431</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>69.96816086086854</v>
+      </c>
+      <c r="F9">
         <v>30.48731592954505</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>26.8036342474001</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>3.604352769600276</v>
       </c>
-      <c r="H9" t="n">
-        <v>572.2219113376239</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>642.1939269795656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>342.0883802041121</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.06836961579849353</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.07029700633513204</v>
+      </c>
+      <c r="D10">
         <v>82.30351551617446</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>34.98408043043427</v>
+      </c>
+      <c r="F10">
         <v>28.63959981260292</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>32.54727015755726</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>1.201450923200093</v>
       </c>
-      <c r="H10" t="n">
-        <v>486.8485862294452</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>521.8345940504163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>243.0715112002113</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.1367392315969871</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.1405940126702641</v>
+      </c>
+      <c r="D11">
         <v>42.47923381479971</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F11">
         <v>31.41117398801611</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>22.97454364062866</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>4.80580369280037</v>
       </c>
-      <c r="H11" t="n">
-        <v>344.8790055680532</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>361.4542668688059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>149.3532037483588</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.1367392315969871</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.1405940126702641</v>
+      </c>
+      <c r="D12">
         <v>23.89456902082484</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>8.285703259839698</v>
+      </c>
+      <c r="F12">
         <v>17.55330311095017</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>17.2309077304715</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>2.402901846400185</v>
       </c>
-      <c r="H12" t="n">
-        <v>210.5716246886025</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>218.8611827295155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>105.9712310409641</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.2051088473954806</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.2108910190053961</v>
+      </c>
+      <c r="D13">
         <v>26.54952113424982</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>5.523802173226464</v>
+      </c>
+      <c r="F13">
         <v>18.47716116942124</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>21.05999833724293</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>172.2630205292735</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>177.7926048741099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>69.87478046763567</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.2187827705551793</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.2249504202724225</v>
+      </c>
+      <c r="D14">
         <v>15.9297126805499</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>2.761901086613232</v>
+      </c>
+      <c r="F14">
         <v>20.32487728636336</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>30.63272485417155</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>1.201450923200093</v>
       </c>
-      <c r="H14" t="n">
-        <v>138.1823289824758</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>140.9503977188062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>53.31677561748504</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.1640870779163844</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.1687128152043169</v>
+      </c>
+      <c r="D15">
         <v>29.20447324767481</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>3.682534782150974</v>
+      </c>
+      <c r="F15">
         <v>15.70558699400805</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>26.8036342474001</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>2.402901846400185</v>
       </c>
-      <c r="H15" t="n">
-        <v>127.5974590308846</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>131.2846195503235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>48.68053425944287</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.06153265421864416</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.06326730570161883</v>
+      </c>
+      <c r="D16">
         <v>34.51437747452475</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>2.761901086613232</v>
+      </c>
+      <c r="F16">
         <v>14.78172893553699</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>22.97454364062866</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>1.201450923200093</v>
       </c>
-      <c r="H16" t="n">
-        <v>122.214167887552</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>124.9778036256482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>98.0233887128918</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.08888050053804154</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.09138610823567164</v>
+      </c>
+      <c r="D17">
         <v>53.09904226849964</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>2.761901086613232</v>
+      </c>
+      <c r="F17">
         <v>34.18274816342927</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>34.461815460943</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>3.604352769600276</v>
       </c>
-      <c r="H17" t="n">
-        <v>223.460227875902</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>226.2246345702129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>215.9163832459644</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.05469569263879482</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.05623760506810562</v>
+      </c>
+      <c r="D18">
         <v>84.95846762959943</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>44.19041738581171</v>
+      </c>
+      <c r="F18">
         <v>78.52793497004029</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>63.17999501172881</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>3.604352769600276</v>
       </c>
-      <c r="H18" t="n">
-        <v>446.2418293195719</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>490.433788617813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>380.1717913594586</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.09571746211789094</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.09841580886918487</v>
+      </c>
+      <c r="D19">
         <v>156.642174692074</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>91.14273585823665</v>
+      </c>
+      <c r="F19">
         <v>133.0355604198329</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>112.9581728997576</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>12.01450923200092</v>
       </c>
-      <c r="H19" t="n">
-        <v>794.917926065242</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>886.0633602702299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>514.9539508396848</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.1025544236977403</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.1054455095026981</v>
+      </c>
+      <c r="D20">
         <v>138.057509898099</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>79.17449781624599</v>
+      </c>
+      <c r="F20">
         <v>129.3401281859487</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>97.64181047267184</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>12.01450923200092</v>
       </c>
-      <c r="H20" t="n">
-        <v>892.1104630521031</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>971.2878519541541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>408.3203996047148</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.1093913852775896</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.1124752101362112</v>
+      </c>
+      <c r="D21">
         <v>69.0287549490495</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>33.14281303935879</v>
+      </c>
+      <c r="F21">
         <v>101.6243864318168</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>70.83817622527171</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>4.80580369280037</v>
       </c>
-      <c r="H21" t="n">
-        <v>654.7269122889309</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>687.8728091531482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>483.4937416243987</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.3418480789924676</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.3514850316756602</v>
+      </c>
+      <c r="D22">
         <v>215.0511211874236</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>34.06344673489652</v>
+      </c>
+      <c r="F22">
         <v>192.1624761619809</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>128.2745353268434</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>4.80580369280037</v>
       </c>
-      <c r="H22" t="n">
-        <v>1024.129526072439</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>1058.202609760019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>434.4820472679529</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.3555220021521662</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.3655444329426866</v>
+      </c>
+      <c r="D23">
         <v>175.2268394860488</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>21.17457499736811</v>
+      </c>
+      <c r="F23">
         <v>207.8680631559889</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>97.64181047267184</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>6.00725461600046</v>
       </c>
-      <c r="H23" t="n">
-        <v>921.581537000815</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>942.7661344289737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>456.0074535731484</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.3555220021521662</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.3655444329426866</v>
+      </c>
+      <c r="D24">
         <v>156.642174692074</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>20.25394130183036</v>
+      </c>
+      <c r="F24">
         <v>194.0101922789229</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>86.15453865235746</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>12.01450923200092</v>
       </c>
-      <c r="H24" t="n">
-        <v>905.1843904306559</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>925.4483541632767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>459.9813747371848</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.2734784631939741</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.2811880253405282</v>
+      </c>
+      <c r="D25">
         <v>164.6070310323489</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>19.33330760629261</v>
+      </c>
+      <c r="F25">
         <v>153.3604377061963</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>80.41090274220028</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>8.410156462400646</v>
       </c>
-      <c r="H25" t="n">
-        <v>867.0433811435248</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>886.384398311964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>473.2277786173054</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.293989347933522</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.3022771272410677</v>
+      </c>
+      <c r="D26">
         <v>146.0223662383741</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>11.04760434645293</v>
+      </c>
+      <c r="F26">
         <v>195.8579083958652</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>107.2145369896004</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>9.61160738560074</v>
       </c>
-      <c r="H26" t="n">
-        <v>932.2281869746795</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>943.2840791004398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>496.7401455045191</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.232456693714878</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.239009821539449</v>
+      </c>
+      <c r="D27">
         <v>204.4313127337237</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>22.09520869290586</v>
+      </c>
+      <c r="F27">
         <v>164.446734407849</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>42.11999667448586</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>8.410156462400646</v>
       </c>
-      <c r="H27" t="n">
-        <v>916.3808024766931</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>938.4825642974237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>480.8444608483745</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.3555220021521662</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.3655444329426866</v>
+      </c>
+      <c r="D28">
         <v>201.7763606202986</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>20.25394130183036</v>
+      </c>
+      <c r="F28">
         <v>155.2081538231384</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>86.15453865235746</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>19.22321477120148</v>
       </c>
-      <c r="H28" t="n">
-        <v>943.5622507175226</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>963.8262144501434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>528.8626749138116</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.3076632710932207</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.3163365285080942</v>
+      </c>
+      <c r="D29">
         <v>196.4664563934486</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>26.69837717059456</v>
+      </c>
+      <c r="F29">
         <v>154.2842957646674</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>51.69272319141446</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>30.03627308000231</v>
       </c>
-      <c r="H29" t="n">
-        <v>961.6500866144376</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>988.357137042447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>662.6513541030287</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.1504131547566857</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.1546534139372905</v>
+      </c>
+      <c r="D30">
         <v>124.7827493309742</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>44.19041738581171</v>
+      </c>
+      <c r="F30">
         <v>133.959418478304</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>40.20545137110014</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>15.6188620016012</v>
       </c>
-      <c r="H30" t="n">
-        <v>977.3682484397649</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>1021.562906084757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>689.4753219602721</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.1982718858156312</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.2038613183718829</v>
+      </c>
+      <c r="D31">
         <v>156.642174692074</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>64.44435868764205</v>
+      </c>
+      <c r="F31">
         <v>102.5482444902879</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>36.37636076432872</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>4.80580369280037</v>
       </c>
-      <c r="H31" t="n">
-        <v>990.0461774855788</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>1054.496125605777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>545.4206797639622</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.1435761931768364</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.1476237133037773</v>
+      </c>
+      <c r="D32">
         <v>132.7476056712492</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>43.26978369027395</v>
+      </c>
+      <c r="F32">
         <v>72.06092856074285</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>28.71817955078583</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>10.81305830880082</v>
       </c>
-      <c r="H32" t="n">
-        <v>789.9040280487177</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>833.1778592591186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>456.6697737671548</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.2051088473954806</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.2108910190053961</v>
+      </c>
+      <c r="D33">
         <v>103.5431324235743</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>58.92055651441558</v>
+      </c>
+      <c r="F33">
         <v>46.19290292355309</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>30.63272485417155</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>1.201450923200093</v>
       </c>
-      <c r="H33" t="n">
-        <v>638.4450937390493</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>697.3714324250748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>375.2043899044131</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.1367392315969871</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.1405940126702641</v>
+      </c>
+      <c r="D34">
         <v>69.0287549490495</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>28.53964456167006</v>
+      </c>
+      <c r="F34">
         <v>29.56345787107398</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>15.31636242708577</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>4.80580369280037</v>
       </c>
-      <c r="H34" t="n">
-        <v>494.0555080760198</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>522.599007418763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>265.2592376994133</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.1299022700171377</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.1335643120367509</v>
+      </c>
+      <c r="D35">
         <v>66.3738028356246</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>15.65077282414164</v>
+      </c>
+      <c r="F35">
         <v>22.17259340330549</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>24.88908894401438</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>1.201450923200093</v>
       </c>
-      <c r="H35" t="n">
-        <v>380.0260760755749</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>395.6805109417362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>166.9046888895183</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.2392936552947272</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.2460395221729621</v>
+      </c>
+      <c r="D36">
         <v>26.54952113424982</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>8.285703259839698</v>
+      </c>
+      <c r="F36">
         <v>18.47716116942124</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>17.2309077304715</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>1.201450923200093</v>
       </c>
-      <c r="H36" t="n">
-        <v>230.6030235021557</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>238.8954726288736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>126.8343171521539</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.2871523863536727</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.2952474266075545</v>
+      </c>
+      <c r="D37">
         <v>26.54952113424982</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>3.682534782150974</v>
+      </c>
+      <c r="F37">
         <v>15.70558699400805</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>19.14545303385722</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>4.80580369280037</v>
       </c>
-      <c r="H37" t="n">
-        <v>193.327834393423</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>197.0184642158279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>71.19942085564776</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.1982718858156312</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.2038613183718829</v>
+      </c>
+      <c r="D38">
         <v>21.23961690739986</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.841267391075487</v>
+      </c>
+      <c r="F38">
         <v>18.47716116942124</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>19.14545303385722</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>2.402901846400185</v>
       </c>
-      <c r="H38" t="n">
-        <v>132.6628256985419</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>134.5096825221736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>47.68705396843383</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.1435761931768364</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.1476237133037773</v>
+      </c>
+      <c r="D39">
         <v>31.8594253610998</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.9206336955377434</v>
+      </c>
+      <c r="F39">
         <v>17.55330311095017</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>19.14545303385722</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>1.201450923200093</v>
       </c>
-      <c r="H39" t="n">
-        <v>117.5902625907179</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>118.5149438063826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>48.01821406543684</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.07520657737834287</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.07732670696864524</v>
+      </c>
+      <c r="D40">
         <v>29.20447324767481</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>2.761901086613232</v>
+      </c>
+      <c r="F40">
         <v>19.40101922789231</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>24.88908894401438</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>2.402901846400185</v>
       </c>
-      <c r="H40" t="n">
-        <v>123.9909039087969</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>126.7549251250004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>89.74438628781647</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.07520657737834287</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.07732670696864524</v>
+      </c>
+      <c r="D41">
         <v>37.16932958794976</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>4.603168477688718</v>
+      </c>
+      <c r="F41">
         <v>47.11676098202414</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>38.29090606771444</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>1.201450923200093</v>
       </c>
-      <c r="H41" t="n">
-        <v>213.5980404260833</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>218.2033290333623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>233.136708290121</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.07520657737834287</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.07732670696864524</v>
+      </c>
+      <c r="D42">
         <v>69.0287549490495</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>38.66661521258523</v>
+      </c>
+      <c r="F42">
         <v>93.30966390557722</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>70.83817622527171</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>9.61160738560074</v>
       </c>
-      <c r="H42" t="n">
-        <v>476.0001173329985</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>514.6688526751741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>347.0557816591573</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.03418480789924676</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.03514850316756602</v>
+      </c>
+      <c r="D43">
         <v>98.23322819672431</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>75.49196303409501</v>
+      </c>
+      <c r="F43">
         <v>113.6345411919407</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>141.6763524505434</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>10.81305830880082</v>
       </c>
-      <c r="H43" t="n">
-        <v>711.4471466150657</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>786.940073344429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>555.6866427710553</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.116228346857439</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.1195049107697245</v>
+      </c>
+      <c r="D44">
         <v>124.7827493309742</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>84.69829998947243</v>
+      </c>
+      <c r="F44">
         <v>134.8832765367751</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>103.3854463828289</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>21.62611661760165</v>
       </c>
-      <c r="H44" t="n">
-        <v>940.4804599860925</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>1025.182036539477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>563.9656451961303</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.2392936552947272</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.2460395221729621</v>
+      </c>
+      <c r="D45">
         <v>151.332270465224</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>44.19041738581171</v>
+      </c>
+      <c r="F45">
         <v>154.2842957646674</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>116.787263506529</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>9.61160738560074</v>
       </c>
-      <c r="H45" t="n">
-        <v>996.2203759734462</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>1040.417539226136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>484.1560618184048</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.369195925311865</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.3796038342097129</v>
+      </c>
+      <c r="D46">
         <v>233.6357859813985</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>40.50788260366073</v>
+      </c>
+      <c r="F46">
         <v>169.0660247002044</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>124.4454447200719</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>9.61160738560074</v>
       </c>
-      <c r="H46" t="n">
-        <v>1021.284120530992</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>1061.802411043551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>360.3021855392777</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.2803154247738234</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.2882177259740414</v>
+      </c>
+      <c r="D47">
         <v>135.4025577846741</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>17.49204021521713</v>
+      </c>
+      <c r="F47">
         <v>149.6650054723121</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>84.23999334897172</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>6.00725461600046</v>
       </c>
-      <c r="H47" t="n">
-        <v>735.8973121860099</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>753.3972547024271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>378.1848307774401</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.2803154247738234</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.2882177259740414</v>
+      </c>
+      <c r="D48">
         <v>119.4728451041242</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>17.49204021521713</v>
+      </c>
+      <c r="F48">
         <v>140.4264248876013</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>74.66726683204314</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>12.01450923200092</v>
       </c>
-      <c r="H48" t="n">
-        <v>725.0461922579835</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>742.5461347744009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>381.4964317474706</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.2187827705551793</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.2249504202724225</v>
+      </c>
+      <c r="D49">
         <v>127.4377014443992</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F49">
         <v>110.8629670165274</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>68.923630921886</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>8.410156462400646</v>
       </c>
-      <c r="H49" t="n">
-        <v>697.3496703632391</v>
+      <c r="I49">
+        <v>713.9272445326357</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_NOx.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>494.4220248254979</v>
+        <v>716.6969698992217</v>
       </c>
       <c r="C2">
-        <v>0.3374256304086338</v>
+        <v>0.4891204572966892</v>
       </c>
       <c r="D2">
-        <v>169.9169352591989</v>
+        <v>246.3056791974647</v>
       </c>
       <c r="E2">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F2">
-        <v>185.6954697526834</v>
+        <v>269.1776939806289</v>
       </c>
       <c r="G2">
-        <v>65.09454031511451</v>
+        <v>94.35878148286606</v>
       </c>
       <c r="H2">
-        <v>15.6188620016012</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I2">
-        <v>947.656664304184</v>
+        <v>1373.690138604413</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>510.6488695786455</v>
+        <v>740.2188396413933</v>
       </c>
       <c r="C3">
-        <v>0.3725741335761998</v>
+        <v>0.5400705049317611</v>
       </c>
       <c r="D3">
-        <v>172.5718873726238</v>
+        <v>250.1542054349252</v>
       </c>
       <c r="E3">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F3">
-        <v>179.2284633433861</v>
+        <v>259.803346429065</v>
       </c>
       <c r="G3">
-        <v>51.69272319141446</v>
+        <v>74.93197353051134</v>
       </c>
       <c r="H3">
-        <v>14.41741107840111</v>
+        <v>20.8989776240823</v>
       </c>
       <c r="I3">
-        <v>945.5033352177265</v>
+        <v>1370.568747659088</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>517.2720715187062</v>
+        <v>749.8196028014635</v>
       </c>
       <c r="C4">
-        <v>0.344455331042147</v>
+        <v>0.4993104668237037</v>
       </c>
       <c r="D4">
-        <v>175.2268394860488</v>
+        <v>254.0027316723856</v>
       </c>
       <c r="E4">
-        <v>15.65077282414164</v>
+        <v>22.6868159111688</v>
       </c>
       <c r="F4">
-        <v>167.2183085832621</v>
+        <v>242.3938438333027</v>
       </c>
       <c r="G4">
-        <v>51.69272319141446</v>
+        <v>74.93197353051134</v>
       </c>
       <c r="H4">
-        <v>13.21596015520101</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I4">
-        <v>940.6211310898163</v>
+        <v>1363.491674371065</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>559.3294038380884</v>
+        <v>810.7844488679073</v>
       </c>
       <c r="C5">
-        <v>0.2882177259740414</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D5">
-        <v>183.1916958263237</v>
+        <v>265.5483103847666</v>
       </c>
       <c r="E5">
-        <v>26.69837717059456</v>
+        <v>38.70103890728795</v>
       </c>
       <c r="F5">
-        <v>164.446734407849</v>
+        <v>238.3762663112038</v>
       </c>
       <c r="G5">
-        <v>49.77817788802875</v>
+        <v>72.15671525160342</v>
       </c>
       <c r="H5">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I5">
-        <v>995.7471160888595</v>
+        <v>1443.400384800112</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>638.476667021809</v>
+        <v>925.5135686307441</v>
       </c>
       <c r="C6">
-        <v>0.274158324707015</v>
+        <v>0.39741037155356</v>
       </c>
       <c r="D6">
-        <v>167.2619831457739</v>
+        <v>242.4571529600045</v>
       </c>
       <c r="E6">
-        <v>58.92055651441558</v>
+        <v>85.4091893126355</v>
       </c>
       <c r="F6">
-        <v>138.5787087706593</v>
+        <v>200.878876104947</v>
       </c>
       <c r="G6">
-        <v>24.88908894401438</v>
+        <v>36.07835762580171</v>
       </c>
       <c r="H6">
-        <v>10.81305830880082</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I6">
-        <v>1039.21422103018</v>
+        <v>1506.408788223748</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>681.5274796322003</v>
+        <v>987.9185291711981</v>
       </c>
       <c r="C7">
-        <v>0.1054455095026981</v>
+        <v>0.1528501429052154</v>
       </c>
       <c r="D7">
-        <v>114.1629408772742</v>
+        <v>165.4866282107966</v>
       </c>
       <c r="E7">
-        <v>61.68245760102884</v>
+        <v>89.41274506166528</v>
       </c>
       <c r="F7">
-        <v>89.61423167169303</v>
+        <v>129.9016732145325</v>
       </c>
       <c r="G7">
-        <v>24.88908894401438</v>
+        <v>36.07835762580171</v>
       </c>
       <c r="H7">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I7">
-        <v>983.9961534677144</v>
+        <v>1426.366598113635</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>518.596711906718</v>
+        <v>751.7397554334771</v>
       </c>
       <c r="C8">
-        <v>0.1335643120367509</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D8">
-        <v>156.642174692074</v>
+        <v>227.0630480101629</v>
       </c>
       <c r="E8">
-        <v>36.82534782150974</v>
+        <v>53.38074332039717</v>
       </c>
       <c r="F8">
-        <v>66.51778020991647</v>
+        <v>96.42186053037459</v>
       </c>
       <c r="G8">
-        <v>22.97454364062866</v>
+        <v>33.30309934689387</v>
       </c>
       <c r="H8">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I8">
-        <v>804.0930244292838</v>
+        <v>1165.585279759666</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>412.9566409627571</v>
+        <v>598.6075830303613</v>
       </c>
       <c r="C9">
-        <v>0.1405940126702641</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D9">
-        <v>98.23322819672431</v>
+        <v>142.3954707860344</v>
       </c>
       <c r="E9">
-        <v>69.96816086086854</v>
+        <v>101.4234123087547</v>
       </c>
       <c r="F9">
-        <v>30.48731592954505</v>
+        <v>44.19335274308836</v>
       </c>
       <c r="G9">
-        <v>26.8036342474001</v>
+        <v>38.85361590470954</v>
       </c>
       <c r="H9">
-        <v>3.604352769600276</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I9">
-        <v>642.1939269795656</v>
+        <v>930.9019793695091</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>342.0883802041121</v>
+        <v>495.8794172176133</v>
       </c>
       <c r="C10">
-        <v>0.07029700633513204</v>
+        <v>0.1019000952701436</v>
       </c>
       <c r="D10">
-        <v>82.30351551617446</v>
+        <v>119.304313361272</v>
       </c>
       <c r="E10">
-        <v>34.98408043043427</v>
+        <v>50.71170615437733</v>
       </c>
       <c r="F10">
-        <v>28.63959981260292</v>
+        <v>41.51496772835571</v>
       </c>
       <c r="G10">
-        <v>32.54727015755726</v>
+        <v>47.17939074143303</v>
       </c>
       <c r="H10">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I10">
-        <v>521.8345940504163</v>
+        <v>756.433276766995</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>243.0715112002113</v>
+        <v>352.3480079745671</v>
       </c>
       <c r="C11">
-        <v>0.1405940126702641</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D11">
-        <v>42.47923381479971</v>
+        <v>61.57641979936619</v>
       </c>
       <c r="E11">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F11">
-        <v>31.41117398801611</v>
+        <v>45.53254525045465</v>
       </c>
       <c r="G11">
-        <v>22.97454364062866</v>
+        <v>33.30309934689387</v>
       </c>
       <c r="H11">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I11">
-        <v>361.4542668688059</v>
+        <v>523.951532930695</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>149.3532037483588</v>
+        <v>216.4972092595774</v>
       </c>
       <c r="C12">
-        <v>0.1405940126702641</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D12">
-        <v>23.89456902082484</v>
+        <v>34.6367361371435</v>
       </c>
       <c r="E12">
-        <v>8.285703259839698</v>
+        <v>12.01066724708937</v>
       </c>
       <c r="F12">
-        <v>17.55330311095017</v>
+        <v>25.44465763995996</v>
       </c>
       <c r="G12">
-        <v>17.2309077304715</v>
+        <v>24.97732451017042</v>
       </c>
       <c r="H12">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I12">
-        <v>218.8611827295155</v>
+        <v>317.253557921828</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>105.9712310409641</v>
+        <v>153.6122105611193</v>
       </c>
       <c r="C13">
-        <v>0.2108910190053961</v>
+        <v>0.3057002858104307</v>
       </c>
       <c r="D13">
-        <v>26.54952113424982</v>
+        <v>38.48526237460389</v>
       </c>
       <c r="E13">
-        <v>5.523802173226464</v>
+        <v>8.007111498059578</v>
       </c>
       <c r="F13">
-        <v>18.47716116942124</v>
+        <v>26.78385014732627</v>
       </c>
       <c r="G13">
-        <v>21.05999833724293</v>
+        <v>30.52784106798607</v>
       </c>
       <c r="I13">
-        <v>177.7926048741099</v>
+        <v>257.7219759349055</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>69.87478046763567</v>
+        <v>101.288051338738</v>
       </c>
       <c r="C14">
-        <v>0.2249504202724225</v>
+        <v>0.3260803048644595</v>
       </c>
       <c r="D14">
-        <v>15.9297126805499</v>
+        <v>23.09115742476233</v>
       </c>
       <c r="E14">
-        <v>2.761901086613232</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F14">
-        <v>20.32487728636336</v>
+        <v>29.46223516205891</v>
       </c>
       <c r="G14">
-        <v>30.63272485417155</v>
+        <v>44.40413246252519</v>
       </c>
       <c r="H14">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I14">
-        <v>140.9503977188062</v>
+        <v>204.3167939106522</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>53.31677561748504</v>
+        <v>77.28614343856309</v>
       </c>
       <c r="C15">
-        <v>0.1687128152043169</v>
+        <v>0.2445602286483446</v>
       </c>
       <c r="D15">
-        <v>29.20447324767481</v>
+        <v>42.33378861206429</v>
       </c>
       <c r="E15">
-        <v>3.682534782150974</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F15">
-        <v>15.70558699400805</v>
+        <v>22.76627262522733</v>
       </c>
       <c r="G15">
-        <v>26.8036342474001</v>
+        <v>38.85361590470954</v>
       </c>
       <c r="H15">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I15">
-        <v>131.2846195503235</v>
+        <v>190.3056180785993</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>48.68053425944287</v>
+        <v>70.56560922651417</v>
       </c>
       <c r="C16">
-        <v>0.06326730570161883</v>
+        <v>0.09171008574312924</v>
       </c>
       <c r="D16">
-        <v>34.51437747452475</v>
+        <v>50.03084108698506</v>
       </c>
       <c r="E16">
-        <v>2.761901086613232</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F16">
-        <v>14.78172893553699</v>
+        <v>21.42708011786102</v>
       </c>
       <c r="G16">
-        <v>22.97454364062866</v>
+        <v>33.30309934689387</v>
       </c>
       <c r="H16">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I16">
-        <v>124.9778036256482</v>
+        <v>181.1634770817006</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>98.0233887128918</v>
+        <v>142.0912947690352</v>
       </c>
       <c r="C17">
-        <v>0.09138610823567164</v>
+        <v>0.1324701238511867</v>
       </c>
       <c r="D17">
-        <v>53.09904226849964</v>
+        <v>76.97052474920778</v>
       </c>
       <c r="E17">
-        <v>2.761901086613232</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F17">
-        <v>34.18274816342927</v>
+        <v>49.5501227725536</v>
       </c>
       <c r="G17">
-        <v>34.461815460943</v>
+        <v>49.95464902034083</v>
       </c>
       <c r="H17">
-        <v>3.604352769600276</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I17">
-        <v>226.2246345702129</v>
+        <v>327.927361590039</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>215.9163832459644</v>
+        <v>312.9848790182806</v>
       </c>
       <c r="C18">
-        <v>0.05623760506810562</v>
+        <v>0.08152007621611487</v>
       </c>
       <c r="D18">
-        <v>84.95846762959943</v>
+        <v>123.1528395987324</v>
       </c>
       <c r="E18">
-        <v>44.19041738581171</v>
+        <v>64.05689198447662</v>
       </c>
       <c r="F18">
-        <v>78.52793497004029</v>
+        <v>113.8313631261367</v>
       </c>
       <c r="G18">
-        <v>63.17999501172881</v>
+        <v>91.58352320395817</v>
       </c>
       <c r="H18">
-        <v>3.604352769600276</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I18">
-        <v>490.433788617813</v>
+        <v>710.9157614138212</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>380.1717913594586</v>
+        <v>551.0838053880155</v>
       </c>
       <c r="C19">
-        <v>0.09841580886918487</v>
+        <v>0.142660133378201</v>
       </c>
       <c r="D19">
-        <v>156.642174692074</v>
+        <v>227.0630480101629</v>
       </c>
       <c r="E19">
-        <v>91.14273585823665</v>
+        <v>132.117339717983</v>
       </c>
       <c r="F19">
-        <v>133.0355604198329</v>
+        <v>192.8437210607492</v>
       </c>
       <c r="G19">
-        <v>112.9581728997576</v>
+        <v>163.7402384555617</v>
       </c>
       <c r="H19">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I19">
-        <v>886.0633602702299</v>
+        <v>1284.406627452586</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>514.9539508396848</v>
+        <v>746.4593356954392</v>
       </c>
       <c r="C20">
-        <v>0.1054455095026981</v>
+        <v>0.1528501429052154</v>
       </c>
       <c r="D20">
-        <v>138.057509898099</v>
+        <v>200.1233643479402</v>
       </c>
       <c r="E20">
-        <v>79.17449781624599</v>
+        <v>114.7685981388539</v>
       </c>
       <c r="F20">
-        <v>129.3401281859487</v>
+        <v>187.4869510312838</v>
       </c>
       <c r="G20">
-        <v>97.64181047267184</v>
+        <v>141.538172224299</v>
       </c>
       <c r="H20">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I20">
-        <v>971.2878519541541</v>
+        <v>1407.945086267457</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>408.3203996047148</v>
+        <v>591.8870488183126</v>
       </c>
       <c r="C21">
-        <v>0.1124752101362112</v>
+        <v>0.1630401524322297</v>
       </c>
       <c r="D21">
-        <v>69.0287549490495</v>
+        <v>100.0616821739701</v>
       </c>
       <c r="E21">
-        <v>33.14281303935879</v>
+        <v>48.04266898835746</v>
       </c>
       <c r="F21">
-        <v>101.6243864318168</v>
+        <v>147.3111758102945</v>
       </c>
       <c r="G21">
-        <v>70.83817622527171</v>
+        <v>102.6845563195895</v>
       </c>
       <c r="H21">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I21">
-        <v>687.8728091531482</v>
+        <v>997.1164981376505</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>483.4937416243987</v>
+        <v>700.8557106851065</v>
       </c>
       <c r="C22">
-        <v>0.3514850316756602</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D22">
-        <v>215.0511211874236</v>
+        <v>311.7306252342913</v>
       </c>
       <c r="E22">
-        <v>34.06344673489652</v>
+        <v>49.37718757136737</v>
       </c>
       <c r="F22">
-        <v>192.1624761619809</v>
+        <v>278.5520415321931</v>
       </c>
       <c r="G22">
-        <v>128.2745353268434</v>
+        <v>185.9423046868242</v>
       </c>
       <c r="H22">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I22">
-        <v>1058.202609760019</v>
+        <v>1533.933696060827</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>434.4820472679529</v>
+        <v>629.8100633005893</v>
       </c>
       <c r="C23">
-        <v>0.3655444329426866</v>
+        <v>0.5298804954047467</v>
       </c>
       <c r="D23">
-        <v>175.2268394860488</v>
+        <v>254.0027316723856</v>
       </c>
       <c r="E23">
-        <v>21.17457499736811</v>
+        <v>30.69392740922837</v>
       </c>
       <c r="F23">
-        <v>207.8680631559889</v>
+        <v>301.3183141574205</v>
       </c>
       <c r="G23">
-        <v>97.64181047267184</v>
+        <v>141.538172224299</v>
       </c>
       <c r="H23">
-        <v>6.00725461600046</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I23">
-        <v>942.7661344289737</v>
+        <v>1366.600996602695</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>456.0074535731484</v>
+        <v>661.0125435708163</v>
       </c>
       <c r="C24">
-        <v>0.3655444329426866</v>
+        <v>0.5298804954047467</v>
       </c>
       <c r="D24">
-        <v>156.642174692074</v>
+        <v>227.0630480101629</v>
       </c>
       <c r="E24">
-        <v>20.25394130183036</v>
+        <v>29.35940882621845</v>
       </c>
       <c r="F24">
-        <v>194.0101922789229</v>
+        <v>281.2304265469259</v>
       </c>
       <c r="G24">
-        <v>86.15453865235746</v>
+        <v>124.8866225508521</v>
       </c>
       <c r="H24">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I24">
-        <v>925.4483541632767</v>
+        <v>1341.497744687116</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>459.9813747371848</v>
+        <v>666.7730014668583</v>
       </c>
       <c r="C25">
-        <v>0.2811880253405282</v>
+        <v>0.4076003810805743</v>
       </c>
       <c r="D25">
-        <v>164.6070310323489</v>
+        <v>238.608626722544</v>
       </c>
       <c r="E25">
-        <v>19.33330760629261</v>
+        <v>28.02489024320853</v>
       </c>
       <c r="F25">
-        <v>153.3604377061963</v>
+        <v>222.305956222808</v>
       </c>
       <c r="G25">
-        <v>80.41090274220028</v>
+        <v>116.5608477141286</v>
       </c>
       <c r="H25">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I25">
-        <v>886.384398311964</v>
+        <v>1284.871993031343</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>473.2277786173054</v>
+        <v>685.974527786998</v>
       </c>
       <c r="C26">
-        <v>0.3022771272410677</v>
+        <v>0.4381704096616175</v>
       </c>
       <c r="D26">
-        <v>146.0223662383741</v>
+        <v>211.6689430603212</v>
       </c>
       <c r="E26">
-        <v>11.04760434645293</v>
+        <v>16.01422299611916</v>
       </c>
       <c r="F26">
-        <v>195.8579083958652</v>
+        <v>283.9088115616586</v>
       </c>
       <c r="G26">
-        <v>107.2145369896004</v>
+        <v>155.4144636188381</v>
       </c>
       <c r="H26">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I26">
-        <v>943.2840791004398</v>
+        <v>1367.351791182985</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>496.7401455045191</v>
+        <v>720.057237005247</v>
       </c>
       <c r="C27">
-        <v>0.239009821539449</v>
+        <v>0.3464603239184881</v>
       </c>
       <c r="D27">
-        <v>204.4313127337237</v>
+        <v>296.3365202844498</v>
       </c>
       <c r="E27">
-        <v>22.09520869290586</v>
+        <v>32.02844599223831</v>
       </c>
       <c r="F27">
-        <v>164.446734407849</v>
+        <v>238.3762663112038</v>
       </c>
       <c r="G27">
-        <v>42.11999667448586</v>
+        <v>61.05568213597214</v>
       </c>
       <c r="H27">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I27">
-        <v>938.4825642974237</v>
+        <v>1360.391682333744</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>480.8444608483745</v>
+        <v>697.0154054210788</v>
       </c>
       <c r="C28">
-        <v>0.3655444329426866</v>
+        <v>0.5298804954047467</v>
       </c>
       <c r="D28">
-        <v>201.7763606202986</v>
+        <v>292.4879940469893</v>
       </c>
       <c r="E28">
-        <v>20.25394130183036</v>
+        <v>29.35940882621845</v>
       </c>
       <c r="F28">
-        <v>155.2081538231384</v>
+        <v>224.9843412375407</v>
       </c>
       <c r="G28">
-        <v>86.15453865235746</v>
+        <v>124.8866225508521</v>
       </c>
       <c r="H28">
-        <v>19.22321477120148</v>
+        <v>27.8653034987764</v>
       </c>
       <c r="I28">
-        <v>963.8262144501434</v>
+        <v>1397.128956076861</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>528.8626749138116</v>
+        <v>766.6209383315856</v>
       </c>
       <c r="C29">
-        <v>0.3163365285080942</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D29">
-        <v>196.4664563934486</v>
+        <v>284.7909415720688</v>
       </c>
       <c r="E29">
-        <v>26.69837717059456</v>
+        <v>38.70103890728795</v>
       </c>
       <c r="F29">
-        <v>154.2842957646674</v>
+        <v>223.6451487301744</v>
       </c>
       <c r="G29">
-        <v>51.69272319141446</v>
+        <v>74.93197353051134</v>
       </c>
       <c r="H29">
-        <v>30.03627308000231</v>
+        <v>43.53953671683814</v>
       </c>
       <c r="I29">
-        <v>988.357137042447</v>
+        <v>1432.688128217182</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>662.6513541030287</v>
+        <v>960.5563541649989</v>
       </c>
       <c r="C30">
-        <v>0.1546534139372905</v>
+        <v>0.2241802095943159</v>
       </c>
       <c r="D30">
-        <v>124.7827493309742</v>
+        <v>180.8807331606382</v>
       </c>
       <c r="E30">
-        <v>44.19041738581171</v>
+        <v>64.05689198447662</v>
       </c>
       <c r="F30">
-        <v>133.959418478304</v>
+        <v>194.1829135681155</v>
       </c>
       <c r="G30">
-        <v>40.20545137110014</v>
+        <v>58.28042385706432</v>
       </c>
       <c r="H30">
-        <v>15.6188620016012</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I30">
-        <v>1021.562906084757</v>
+        <v>1480.822056037644</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>689.4753219602721</v>
+        <v>999.4394449632823</v>
       </c>
       <c r="C31">
-        <v>0.2038613183718829</v>
+        <v>0.2955102762834164</v>
       </c>
       <c r="D31">
-        <v>156.642174692074</v>
+        <v>227.0630480101629</v>
       </c>
       <c r="E31">
-        <v>64.44435868764205</v>
+        <v>93.41630081069502</v>
       </c>
       <c r="F31">
-        <v>102.5482444902879</v>
+        <v>148.6503683176607</v>
       </c>
       <c r="G31">
-        <v>36.37636076432872</v>
+        <v>52.72990729924865</v>
       </c>
       <c r="H31">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I31">
-        <v>1054.496125605777</v>
+        <v>1528.560905552027</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>545.4206797639622</v>
+        <v>790.6228462317606</v>
       </c>
       <c r="C32">
-        <v>0.1476237133037773</v>
+        <v>0.2139902000673015</v>
       </c>
       <c r="D32">
-        <v>132.7476056712492</v>
+        <v>192.4263118730195</v>
       </c>
       <c r="E32">
-        <v>43.26978369027395</v>
+        <v>62.72237340146667</v>
       </c>
       <c r="F32">
-        <v>72.06092856074285</v>
+        <v>104.4570155745725</v>
       </c>
       <c r="G32">
-        <v>28.71817955078583</v>
+        <v>41.62887418361738</v>
       </c>
       <c r="H32">
-        <v>10.81305830880082</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I32">
-        <v>833.1778592591186</v>
+        <v>1207.745644682566</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>456.6697737671548</v>
+        <v>661.9726198868234</v>
       </c>
       <c r="C33">
-        <v>0.2108910190053961</v>
+        <v>0.3057002858104307</v>
       </c>
       <c r="D33">
-        <v>103.5431324235743</v>
+        <v>150.0925232609551</v>
       </c>
       <c r="E33">
-        <v>58.92055651441558</v>
+        <v>85.4091893126355</v>
       </c>
       <c r="F33">
-        <v>46.19290292355309</v>
+        <v>66.9596253683157</v>
       </c>
       <c r="G33">
-        <v>30.63272485417155</v>
+        <v>44.40413246252519</v>
       </c>
       <c r="H33">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I33">
-        <v>697.3714324250748</v>
+        <v>1010.885372045739</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>375.2043899044131</v>
+        <v>543.8832330179628</v>
       </c>
       <c r="C34">
-        <v>0.1405940126702641</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D34">
-        <v>69.0287549490495</v>
+        <v>100.0616821739701</v>
       </c>
       <c r="E34">
-        <v>28.53964456167006</v>
+        <v>41.37007607330781</v>
       </c>
       <c r="F34">
-        <v>29.56345787107398</v>
+        <v>42.85416023572203</v>
       </c>
       <c r="G34">
-        <v>15.31636242708577</v>
+        <v>22.2020662312626</v>
       </c>
       <c r="H34">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I34">
-        <v>522.599007418763</v>
+        <v>757.5413437974597</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>265.2592376994133</v>
+        <v>384.5105645608016</v>
       </c>
       <c r="C35">
-        <v>0.1335643120367509</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D35">
-        <v>66.3738028356246</v>
+        <v>96.21315593650974</v>
       </c>
       <c r="E35">
-        <v>15.65077282414164</v>
+        <v>22.6868159111688</v>
       </c>
       <c r="F35">
-        <v>22.17259340330549</v>
+        <v>32.14062017679153</v>
       </c>
       <c r="G35">
-        <v>24.88908894401438</v>
+        <v>36.07835762580171</v>
       </c>
       <c r="H35">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I35">
-        <v>395.6805109417362</v>
+        <v>573.5647058607602</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>166.9046888895183</v>
+        <v>241.9392316337628</v>
       </c>
       <c r="C36">
-        <v>0.2460395221729621</v>
+        <v>0.3566503334455026</v>
       </c>
       <c r="D36">
-        <v>26.54952113424982</v>
+        <v>38.48526237460389</v>
       </c>
       <c r="E36">
-        <v>8.285703259839698</v>
+        <v>12.01066724708937</v>
       </c>
       <c r="F36">
-        <v>18.47716116942124</v>
+        <v>26.78385014732627</v>
       </c>
       <c r="G36">
-        <v>17.2309077304715</v>
+        <v>24.97732451017042</v>
       </c>
       <c r="H36">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I36">
-        <v>238.8954726288736</v>
+        <v>346.2945677150718</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>126.8343171521539</v>
+        <v>183.8546145153396</v>
       </c>
       <c r="C37">
-        <v>0.2952474266075545</v>
+        <v>0.4279804001346029</v>
       </c>
       <c r="D37">
-        <v>26.54952113424982</v>
+        <v>38.48526237460389</v>
       </c>
       <c r="E37">
-        <v>3.682534782150974</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F37">
-        <v>15.70558699400805</v>
+        <v>22.76627262522733</v>
       </c>
       <c r="G37">
-        <v>19.14545303385722</v>
+        <v>27.75258278907826</v>
       </c>
       <c r="H37">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I37">
-        <v>197.0184642158279</v>
+        <v>285.5911129111175</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>71.19942085564776</v>
+        <v>103.208203970752</v>
       </c>
       <c r="C38">
-        <v>0.2038613183718829</v>
+        <v>0.2955102762834164</v>
       </c>
       <c r="D38">
-        <v>21.23961690739986</v>
+        <v>30.78820989968309</v>
       </c>
       <c r="E38">
-        <v>1.841267391075487</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F38">
-        <v>18.47716116942124</v>
+        <v>26.78385014732627</v>
       </c>
       <c r="G38">
-        <v>19.14545303385722</v>
+        <v>27.75258278907826</v>
       </c>
       <c r="H38">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I38">
-        <v>134.5096825221736</v>
+        <v>194.9805571864899</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>47.68705396843383</v>
+        <v>69.12549475250367</v>
       </c>
       <c r="C39">
-        <v>0.1476237133037773</v>
+        <v>0.2139902000673015</v>
       </c>
       <c r="D39">
-        <v>31.8594253610998</v>
+        <v>46.18231484952466</v>
       </c>
       <c r="E39">
-        <v>0.9206336955377434</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F39">
-        <v>17.55330311095017</v>
+        <v>25.44465763995996</v>
       </c>
       <c r="G39">
-        <v>19.14545303385722</v>
+        <v>27.75258278907826</v>
       </c>
       <c r="H39">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I39">
-        <v>118.5149438063826</v>
+        <v>171.7951402828173</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>48.01821406543684</v>
+        <v>69.60553291050715</v>
       </c>
       <c r="C40">
-        <v>0.07732670696864524</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D40">
-        <v>29.20447324767481</v>
+        <v>42.33378861206429</v>
       </c>
       <c r="E40">
-        <v>2.761901086613232</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F40">
-        <v>19.40101922789231</v>
+        <v>28.12304265469259</v>
       </c>
       <c r="G40">
-        <v>24.88908894401438</v>
+        <v>36.07835762580171</v>
       </c>
       <c r="H40">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I40">
-        <v>126.7549251250004</v>
+        <v>183.7395305942397</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>89.74438628781647</v>
+        <v>130.0903408189479</v>
       </c>
       <c r="C41">
-        <v>0.07732670696864524</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D41">
-        <v>37.16932958794976</v>
+        <v>53.87936732444544</v>
       </c>
       <c r="E41">
-        <v>4.603168477688718</v>
+        <v>6.672592915049647</v>
       </c>
       <c r="F41">
-        <v>47.11676098202414</v>
+        <v>68.298817875682</v>
       </c>
       <c r="G41">
-        <v>38.29090606771444</v>
+        <v>55.50516557815651</v>
       </c>
       <c r="H41">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I41">
-        <v>218.2033290333623</v>
+        <v>316.2999560857521</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>233.136708290121</v>
+        <v>337.9468632344622</v>
       </c>
       <c r="C42">
-        <v>0.07732670696864524</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D42">
-        <v>69.0287549490495</v>
+        <v>100.0616821739701</v>
       </c>
       <c r="E42">
-        <v>38.66661521258523</v>
+        <v>56.04978048641706</v>
       </c>
       <c r="F42">
-        <v>93.30966390557722</v>
+        <v>135.2584432439977</v>
       </c>
       <c r="G42">
-        <v>70.83817622527171</v>
+        <v>102.6845563195895</v>
       </c>
       <c r="H42">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I42">
-        <v>514.6688526751741</v>
+        <v>746.046067312622</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>347.0557816591573</v>
+        <v>503.0799895876656</v>
       </c>
       <c r="C43">
-        <v>0.03514850316756602</v>
+        <v>0.05095004763507179</v>
       </c>
       <c r="D43">
-        <v>98.23322819672431</v>
+        <v>142.3954707860344</v>
       </c>
       <c r="E43">
-        <v>75.49196303409501</v>
+        <v>109.4305238068142</v>
       </c>
       <c r="F43">
-        <v>113.6345411919407</v>
+        <v>164.7206784060566</v>
       </c>
       <c r="G43">
-        <v>141.6763524505434</v>
+        <v>205.3691126391791</v>
       </c>
       <c r="H43">
-        <v>10.81305830880082</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I43">
-        <v>786.940073344429</v>
+        <v>1140.720958491447</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>555.6866427710553</v>
+        <v>805.5040291298694</v>
       </c>
       <c r="C44">
-        <v>0.1195049107697245</v>
+        <v>0.1732301619592441</v>
       </c>
       <c r="D44">
-        <v>124.7827493309742</v>
+        <v>180.8807331606382</v>
       </c>
       <c r="E44">
-        <v>84.69829998947243</v>
+        <v>122.7757096369135</v>
       </c>
       <c r="F44">
-        <v>134.8832765367751</v>
+        <v>195.5221060754818</v>
       </c>
       <c r="G44">
-        <v>103.3854463828289</v>
+        <v>149.8639470610227</v>
       </c>
       <c r="H44">
-        <v>21.62611661760165</v>
+        <v>31.34846643612345</v>
       </c>
       <c r="I44">
-        <v>1025.182036539477</v>
+        <v>1486.068221662008</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>563.9656451961303</v>
+        <v>817.5049830799568</v>
       </c>
       <c r="C45">
-        <v>0.2460395221729621</v>
+        <v>0.3566503334455026</v>
       </c>
       <c r="D45">
-        <v>151.332270465224</v>
+        <v>219.3659955352421</v>
       </c>
       <c r="E45">
-        <v>44.19041738581171</v>
+        <v>64.05689198447662</v>
       </c>
       <c r="F45">
-        <v>154.2842957646674</v>
+        <v>223.6451487301744</v>
       </c>
       <c r="G45">
-        <v>116.787263506529</v>
+        <v>169.2907550133773</v>
       </c>
       <c r="H45">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I45">
-        <v>1040.417539226136</v>
+        <v>1508.153076426061</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>484.1560618184048</v>
+        <v>701.8157870011136</v>
       </c>
       <c r="C46">
-        <v>0.3796038342097129</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D46">
-        <v>233.6357859813985</v>
+        <v>338.6703088965143</v>
       </c>
       <c r="E46">
-        <v>40.50788260366073</v>
+        <v>58.7188176524369</v>
       </c>
       <c r="F46">
-        <v>169.0660247002044</v>
+        <v>245.0722288480353</v>
       </c>
       <c r="G46">
-        <v>124.4454447200719</v>
+        <v>180.3917881290086</v>
       </c>
       <c r="H46">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I46">
-        <v>1061.802411043551</v>
+        <v>1539.151842790956</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>360.3021855392777</v>
+        <v>522.2815159078057</v>
       </c>
       <c r="C47">
-        <v>0.2882177259740414</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D47">
-        <v>135.4025577846741</v>
+        <v>196.2748381104797</v>
       </c>
       <c r="E47">
-        <v>17.49204021521713</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F47">
-        <v>149.6650054723121</v>
+        <v>216.9491861933428</v>
       </c>
       <c r="G47">
-        <v>84.23999334897172</v>
+        <v>122.1113642719443</v>
       </c>
       <c r="H47">
-        <v>6.00725461600046</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I47">
-        <v>753.3972547024271</v>
+        <v>1092.098455294736</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>378.1848307774401</v>
+        <v>548.2035764399942</v>
       </c>
       <c r="C48">
-        <v>0.2882177259740414</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D48">
-        <v>119.4728451041242</v>
+        <v>173.1836806857174</v>
       </c>
       <c r="E48">
-        <v>17.49204021521713</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F48">
-        <v>140.4264248876013</v>
+        <v>203.5572611196797</v>
       </c>
       <c r="G48">
-        <v>74.66726683204314</v>
+        <v>108.2350728774051</v>
       </c>
       <c r="H48">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I48">
-        <v>742.5461347744009</v>
+        <v>1076.369049277328</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>381.4964317474706</v>
+        <v>553.0039580200294</v>
       </c>
       <c r="C49">
-        <v>0.2249504202724225</v>
+        <v>0.3260803048644595</v>
       </c>
       <c r="D49">
-        <v>127.4377014443992</v>
+        <v>184.7292593980986</v>
       </c>
       <c r="E49">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F49">
-        <v>110.8629670165274</v>
+        <v>160.7031008839577</v>
       </c>
       <c r="G49">
-        <v>68.923630921886</v>
+        <v>99.90929804068166</v>
       </c>
       <c r="H49">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I49">
-        <v>713.9272445326357</v>
+        <v>1034.884101422525</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_NOx.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>716.6969698992217</v>
+        <v>487.1131775019905</v>
       </c>
       <c r="C2">
-        <v>0.4891204572966892</v>
+        <v>0.3324375993504192</v>
       </c>
       <c r="D2">
-        <v>246.3056791974647</v>
+        <v>167.4051196944977</v>
       </c>
       <c r="E2">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F2">
-        <v>269.1776939806289</v>
+        <v>182.9504062867742</v>
       </c>
       <c r="G2">
-        <v>94.35878148286606</v>
+        <v>64.13227319741284</v>
       </c>
       <c r="H2">
-        <v>22.64055909275583</v>
+        <v>15.38797447636014</v>
       </c>
       <c r="I2">
-        <v>1373.690138604413</v>
+        <v>933.6478266579481</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>740.2188396413933</v>
+        <v>503.1001471587874</v>
       </c>
       <c r="C3">
-        <v>0.5400705049317611</v>
+        <v>0.3670665159494212</v>
       </c>
       <c r="D3">
-        <v>250.1542054349252</v>
+        <v>170.0208246897242</v>
       </c>
       <c r="E3">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F3">
-        <v>259.803346429065</v>
+        <v>176.5789991026577</v>
       </c>
       <c r="G3">
-        <v>74.93197353051134</v>
+        <v>50.92856989206315</v>
       </c>
       <c r="H3">
-        <v>20.8989776240823</v>
+        <v>14.20428413202475</v>
       </c>
       <c r="I3">
-        <v>1370.568747659088</v>
+        <v>931.526329392769</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>749.8196028014635</v>
+        <v>509.6254408962558</v>
       </c>
       <c r="C4">
-        <v>0.4993104668237037</v>
+        <v>0.3393633826702196</v>
       </c>
       <c r="D4">
-        <v>254.0027316723856</v>
+        <v>172.6365296849507</v>
       </c>
       <c r="E4">
-        <v>22.6868159111688</v>
+        <v>15.41941357369781</v>
       </c>
       <c r="F4">
-        <v>242.3938438333027</v>
+        <v>164.7463857607271</v>
       </c>
       <c r="G4">
-        <v>74.93197353051134</v>
+        <v>50.92856989206315</v>
       </c>
       <c r="H4">
-        <v>19.15739615540878</v>
+        <v>13.02059378768935</v>
       </c>
       <c r="I4">
-        <v>1363.491674371065</v>
+        <v>926.7162969780543</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>810.7844488679073</v>
+        <v>551.0610561291778</v>
       </c>
       <c r="C5">
-        <v>0.4177903906075888</v>
+        <v>0.2839571161118165</v>
       </c>
       <c r="D5">
-        <v>265.5483103847666</v>
+        <v>180.4836446706304</v>
       </c>
       <c r="E5">
-        <v>38.70103890728795</v>
+        <v>26.30370550807275</v>
       </c>
       <c r="F5">
-        <v>238.3762663112038</v>
+        <v>162.01578268182</v>
       </c>
       <c r="G5">
-        <v>72.15671525160342</v>
+        <v>49.04232656272747</v>
       </c>
       <c r="H5">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I5">
-        <v>1443.400384800112</v>
+        <v>981.0273761118942</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>925.5135686307441</v>
+        <v>629.0383162919208</v>
       </c>
       <c r="C6">
-        <v>0.39741037155356</v>
+        <v>0.2701055494722157</v>
       </c>
       <c r="D6">
-        <v>242.4571529600045</v>
+        <v>164.7894146992712</v>
       </c>
       <c r="E6">
-        <v>85.4091893126355</v>
+        <v>58.04955698333293</v>
       </c>
       <c r="F6">
-        <v>200.878876104947</v>
+        <v>136.530153945354</v>
       </c>
       <c r="G6">
-        <v>36.07835762580171</v>
+        <v>24.52116328136373</v>
       </c>
       <c r="H6">
-        <v>15.67423321806173</v>
+        <v>10.65321309901856</v>
       </c>
       <c r="I6">
-        <v>1506.408788223748</v>
+        <v>1023.851923849733</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>987.9185291711981</v>
+        <v>671.4527255854637</v>
       </c>
       <c r="C7">
-        <v>0.1528501429052154</v>
+        <v>0.103886749797006</v>
       </c>
       <c r="D7">
-        <v>165.4866282107966</v>
+        <v>112.4753147947407</v>
       </c>
       <c r="E7">
-        <v>89.41274506166528</v>
+        <v>60.77062996692668</v>
       </c>
       <c r="F7">
-        <v>129.9016732145325</v>
+        <v>88.28949955132886</v>
       </c>
       <c r="G7">
-        <v>36.07835762580171</v>
+        <v>24.52116328136373</v>
       </c>
       <c r="H7">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I7">
-        <v>1426.366598113635</v>
+        <v>969.4501233729746</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>751.7397554334771</v>
+        <v>510.930499643749</v>
       </c>
       <c r="C8">
-        <v>0.1936101810132728</v>
+        <v>0.1315898830762076</v>
       </c>
       <c r="D8">
-        <v>227.0630480101629</v>
+        <v>154.326594718365</v>
       </c>
       <c r="E8">
-        <v>53.38074332039717</v>
+        <v>36.28097311458307</v>
       </c>
       <c r="F8">
-        <v>96.42186053037459</v>
+        <v>65.53447389376991</v>
       </c>
       <c r="G8">
-        <v>33.30309934689387</v>
+        <v>22.63491995202807</v>
       </c>
       <c r="H8">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I8">
-        <v>1165.585279759666</v>
+        <v>792.2064318942421</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>598.6075830303613</v>
+        <v>406.8520645311335</v>
       </c>
       <c r="C9">
-        <v>0.2038001905402872</v>
+        <v>0.138515666396008</v>
       </c>
       <c r="D9">
-        <v>142.3954707860344</v>
+        <v>96.78108482338151</v>
       </c>
       <c r="E9">
-        <v>101.4234123087547</v>
+        <v>68.93384891770786</v>
       </c>
       <c r="F9">
-        <v>44.19335274308836</v>
+        <v>30.03663386797786</v>
       </c>
       <c r="G9">
-        <v>38.85361590470954</v>
+        <v>26.40740661069941</v>
       </c>
       <c r="H9">
-        <v>5.224744406020576</v>
+        <v>3.551071033006187</v>
       </c>
       <c r="I9">
-        <v>930.9019793695091</v>
+        <v>632.7006254503024</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>495.8794172176133</v>
+        <v>337.0314215402256</v>
       </c>
       <c r="C10">
-        <v>0.1019000952701436</v>
+        <v>0.06925783319800402</v>
       </c>
       <c r="D10">
-        <v>119.304313361272</v>
+        <v>81.0868548520223</v>
       </c>
       <c r="E10">
-        <v>50.71170615437733</v>
+        <v>34.46692445885393</v>
       </c>
       <c r="F10">
-        <v>41.51496772835571</v>
+        <v>28.21623181537314</v>
       </c>
       <c r="G10">
-        <v>47.17939074143303</v>
+        <v>32.06613659870642</v>
       </c>
       <c r="H10">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I10">
-        <v>756.433276766995</v>
+        <v>514.1205174427148</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>352.3480079745671</v>
+        <v>239.478280165078</v>
       </c>
       <c r="C11">
-        <v>0.2038001905402872</v>
+        <v>0.138515666396008</v>
       </c>
       <c r="D11">
-        <v>61.57641979936619</v>
+        <v>41.85127992362442</v>
       </c>
       <c r="E11">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F11">
-        <v>45.53254525045465</v>
+        <v>30.94683489428023</v>
       </c>
       <c r="G11">
-        <v>33.30309934689387</v>
+        <v>22.63491995202807</v>
       </c>
       <c r="H11">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I11">
-        <v>523.951532930695</v>
+        <v>356.1110298803106</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>216.4972092595774</v>
+        <v>147.1453737799048</v>
       </c>
       <c r="C12">
-        <v>0.2038001905402872</v>
+        <v>0.138515666396008</v>
       </c>
       <c r="D12">
-        <v>34.6367361371435</v>
+        <v>23.54134495703873</v>
       </c>
       <c r="E12">
-        <v>12.01066724708937</v>
+        <v>8.163218950781193</v>
       </c>
       <c r="F12">
-        <v>25.44465763995996</v>
+        <v>17.29381949974482</v>
       </c>
       <c r="G12">
-        <v>24.97732451017042</v>
+        <v>16.97618996402105</v>
       </c>
       <c r="H12">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I12">
-        <v>317.253557921828</v>
+        <v>215.6258435065573</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>153.6122105611193</v>
+        <v>104.404699799489</v>
       </c>
       <c r="C13">
-        <v>0.3057002858104307</v>
+        <v>0.2077734995940121</v>
       </c>
       <c r="D13">
-        <v>38.48526237460389</v>
+        <v>26.15704995226526</v>
       </c>
       <c r="E13">
-        <v>8.007111498059578</v>
+        <v>5.442145967187463</v>
       </c>
       <c r="F13">
-        <v>26.78385014732627</v>
+        <v>18.20402052604719</v>
       </c>
       <c r="G13">
-        <v>30.52784106798607</v>
+        <v>20.7486766226924</v>
       </c>
       <c r="I13">
-        <v>257.7219759349055</v>
+        <v>175.1643663672753</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>101.288051338738</v>
+        <v>68.84184893028801</v>
       </c>
       <c r="C14">
-        <v>0.3260803048644595</v>
+        <v>0.2216250662336128</v>
       </c>
       <c r="D14">
-        <v>23.09115742476233</v>
+        <v>15.69422997135916</v>
       </c>
       <c r="E14">
-        <v>4.003555749029789</v>
+        <v>2.721072983593731</v>
       </c>
       <c r="F14">
-        <v>29.46223516205891</v>
+        <v>20.02442257865191</v>
       </c>
       <c r="G14">
-        <v>44.40413246252519</v>
+        <v>30.17989326937076</v>
       </c>
       <c r="H14">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I14">
-        <v>204.3167939106522</v>
+        <v>138.8667831438326</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>77.28614343856309</v>
+        <v>52.5286145866179</v>
       </c>
       <c r="C15">
-        <v>0.2445602286483446</v>
+        <v>0.1662187996752096</v>
       </c>
       <c r="D15">
-        <v>42.33378861206429</v>
+        <v>28.77275494749178</v>
       </c>
       <c r="E15">
-        <v>5.338074332039719</v>
+        <v>3.628097311458308</v>
       </c>
       <c r="F15">
-        <v>22.76627262522733</v>
+        <v>15.47341744714011</v>
       </c>
       <c r="G15">
-        <v>38.85361590470954</v>
+        <v>26.40740661069941</v>
       </c>
       <c r="H15">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I15">
-        <v>190.3056180785993</v>
+        <v>129.3438903917535</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>70.56560922651417</v>
+        <v>47.96090897039027</v>
       </c>
       <c r="C16">
-        <v>0.09171008574312924</v>
+        <v>0.06233204987820361</v>
       </c>
       <c r="D16">
-        <v>50.03084108698506</v>
+        <v>34.00416493794485</v>
       </c>
       <c r="E16">
-        <v>4.003555749029789</v>
+        <v>2.721072983593731</v>
       </c>
       <c r="F16">
-        <v>21.42708011786102</v>
+        <v>14.56321642083775</v>
       </c>
       <c r="G16">
-        <v>33.30309934689387</v>
+        <v>22.63491995202807</v>
       </c>
       <c r="H16">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I16">
-        <v>181.1634770817006</v>
+        <v>123.1303056590083</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>142.0912947690352</v>
+        <v>96.57434731452724</v>
       </c>
       <c r="C17">
-        <v>0.1324701238511867</v>
+        <v>0.09003518315740525</v>
       </c>
       <c r="D17">
-        <v>76.97052474920778</v>
+        <v>52.31409990453052</v>
       </c>
       <c r="E17">
-        <v>4.003555749029789</v>
+        <v>2.721072983593731</v>
       </c>
       <c r="F17">
-        <v>49.5501227725536</v>
+        <v>33.67743797318731</v>
       </c>
       <c r="G17">
-        <v>49.95464902034083</v>
+        <v>33.95237992804209</v>
       </c>
       <c r="H17">
-        <v>5.224744406020576</v>
+        <v>3.551071033006187</v>
       </c>
       <c r="I17">
-        <v>327.927361590039</v>
+        <v>222.8804443200445</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>312.9848790182806</v>
+        <v>212.7245758414589</v>
       </c>
       <c r="C18">
-        <v>0.08152007621611487</v>
+        <v>0.0554062665584032</v>
       </c>
       <c r="D18">
-        <v>123.1528395987324</v>
+        <v>83.70255984724884</v>
       </c>
       <c r="E18">
-        <v>64.05689198447662</v>
+        <v>43.5371677374997</v>
       </c>
       <c r="F18">
-        <v>113.8313631261367</v>
+        <v>77.36708723570057</v>
       </c>
       <c r="G18">
-        <v>91.58352320395817</v>
+        <v>62.24602986807718</v>
       </c>
       <c r="H18">
-        <v>5.224744406020576</v>
+        <v>3.551071033006187</v>
       </c>
       <c r="I18">
-        <v>710.9157614138212</v>
+        <v>483.1838978295498</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>551.0838053880155</v>
+        <v>374.5518605306665</v>
       </c>
       <c r="C19">
-        <v>0.142660133378201</v>
+        <v>0.0969609664772056</v>
       </c>
       <c r="D19">
-        <v>227.0630480101629</v>
+        <v>154.326594718365</v>
       </c>
       <c r="E19">
-        <v>132.117339717983</v>
+        <v>89.79540845859312</v>
       </c>
       <c r="F19">
-        <v>192.8437210607492</v>
+        <v>131.0689477875398</v>
       </c>
       <c r="G19">
-        <v>163.7402384555617</v>
+        <v>111.2883564308046</v>
       </c>
       <c r="H19">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I19">
-        <v>1284.406627452586</v>
+        <v>872.9650323358003</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>746.4593356954392</v>
+        <v>507.3415880881417</v>
       </c>
       <c r="C20">
-        <v>0.1528501429052154</v>
+        <v>0.103886749797006</v>
       </c>
       <c r="D20">
-        <v>200.1233643479402</v>
+        <v>136.0166597517794</v>
       </c>
       <c r="E20">
-        <v>114.7685981388539</v>
+        <v>78.00409219635361</v>
       </c>
       <c r="F20">
-        <v>187.4869510312838</v>
+        <v>127.4281436823303</v>
       </c>
       <c r="G20">
-        <v>141.538172224299</v>
+        <v>96.19840979611928</v>
       </c>
       <c r="H20">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I20">
-        <v>1407.945086267457</v>
+        <v>956.9296837078753</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>591.8870488183126</v>
+        <v>402.284358914906</v>
       </c>
       <c r="C21">
-        <v>0.1630401524322297</v>
+        <v>0.1108125331168064</v>
       </c>
       <c r="D21">
-        <v>100.0616821739701</v>
+        <v>68.0083298758897</v>
       </c>
       <c r="E21">
-        <v>48.04266898835746</v>
+        <v>32.65287580312477</v>
       </c>
       <c r="F21">
-        <v>147.3111758102945</v>
+        <v>100.1221128932596</v>
       </c>
       <c r="G21">
-        <v>102.6845563195895</v>
+        <v>69.79100318541992</v>
       </c>
       <c r="H21">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I21">
-        <v>997.1164981376505</v>
+        <v>677.7042545830584</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>700.8557106851065</v>
+        <v>476.3464428351684</v>
       </c>
       <c r="C22">
-        <v>0.5095004763507178</v>
+        <v>0.34628916599002</v>
       </c>
       <c r="D22">
-        <v>311.7306252342913</v>
+        <v>211.8721046133486</v>
       </c>
       <c r="E22">
-        <v>49.37718757136737</v>
+        <v>33.55990013098935</v>
       </c>
       <c r="F22">
-        <v>278.5520415321931</v>
+        <v>189.3218134708908</v>
       </c>
       <c r="G22">
-        <v>185.9423046868242</v>
+        <v>126.37830306549</v>
       </c>
       <c r="H22">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I22">
-        <v>1533.933696060827</v>
+        <v>1042.559614659219</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>629.8100633005893</v>
+        <v>428.0592691779049</v>
       </c>
       <c r="C23">
-        <v>0.5298804954047467</v>
+        <v>0.360140732629621</v>
       </c>
       <c r="D23">
-        <v>254.0027316723856</v>
+        <v>172.6365296849507</v>
       </c>
       <c r="E23">
-        <v>30.69392740922837</v>
+        <v>20.86155954088528</v>
       </c>
       <c r="F23">
-        <v>301.3183141574205</v>
+        <v>204.7952309180309</v>
       </c>
       <c r="G23">
-        <v>141.538172224299</v>
+        <v>96.19840979611928</v>
       </c>
       <c r="H23">
-        <v>8.707907343367626</v>
+        <v>5.918451721676975</v>
       </c>
       <c r="I23">
-        <v>1366.600996602695</v>
+        <v>928.8295915721976</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>661.0125435708163</v>
+        <v>449.2664738246758</v>
       </c>
       <c r="C24">
-        <v>0.5298804954047467</v>
+        <v>0.360140732629621</v>
       </c>
       <c r="D24">
-        <v>227.0630480101629</v>
+        <v>154.326594718365</v>
       </c>
       <c r="E24">
-        <v>29.35940882621845</v>
+        <v>19.9545352130207</v>
       </c>
       <c r="F24">
-        <v>281.2304265469259</v>
+        <v>191.1422155234955</v>
       </c>
       <c r="G24">
-        <v>124.8866225508521</v>
+        <v>84.88094982010524</v>
       </c>
       <c r="H24">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I24">
-        <v>1341.497744687116</v>
+        <v>911.7678132756458</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>666.7730014668583</v>
+        <v>453.1816500671569</v>
       </c>
       <c r="C25">
-        <v>0.4076003810805743</v>
+        <v>0.2770313327920161</v>
       </c>
       <c r="D25">
-        <v>238.608626722544</v>
+        <v>162.1737097040446</v>
       </c>
       <c r="E25">
-        <v>28.02489024320853</v>
+        <v>19.04751088515612</v>
       </c>
       <c r="F25">
-        <v>222.305956222808</v>
+        <v>151.0933703661917</v>
       </c>
       <c r="G25">
-        <v>116.5608477141286</v>
+        <v>79.22221983209819</v>
       </c>
       <c r="H25">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I25">
-        <v>1284.871993031343</v>
+        <v>873.2813245977873</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>685.974527786998</v>
+        <v>466.2322375420931</v>
       </c>
       <c r="C26">
-        <v>0.4381704096616175</v>
+        <v>0.2978086827514173</v>
       </c>
       <c r="D26">
-        <v>211.6689430603212</v>
+        <v>143.863774737459</v>
       </c>
       <c r="E26">
-        <v>16.01422299611916</v>
+        <v>10.88429193437493</v>
       </c>
       <c r="F26">
-        <v>283.9088115616586</v>
+        <v>192.9626175761002</v>
       </c>
       <c r="G26">
-        <v>155.4144636188381</v>
+        <v>105.6296264427976</v>
       </c>
       <c r="H26">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I26">
-        <v>1367.351791182985</v>
+        <v>929.3398796702594</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>720.057237005247</v>
+        <v>489.3970303101044</v>
       </c>
       <c r="C27">
-        <v>0.3464603239184881</v>
+        <v>0.2354766328732136</v>
       </c>
       <c r="D27">
-        <v>296.3365202844498</v>
+        <v>201.4092846324424</v>
       </c>
       <c r="E27">
-        <v>32.02844599223831</v>
+        <v>21.76858386874985</v>
       </c>
       <c r="F27">
-        <v>238.3762663112038</v>
+        <v>162.01578268182</v>
       </c>
       <c r="G27">
-        <v>61.05568213597214</v>
+        <v>41.49735324538479</v>
       </c>
       <c r="H27">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I27">
-        <v>1360.391682333744</v>
+        <v>924.6093437817225</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>697.0154054210788</v>
+        <v>473.7363253401813</v>
       </c>
       <c r="C28">
-        <v>0.5298804954047467</v>
+        <v>0.360140732629621</v>
       </c>
       <c r="D28">
-        <v>292.4879940469893</v>
+        <v>198.7935796372159</v>
       </c>
       <c r="E28">
-        <v>29.35940882621845</v>
+        <v>19.9545352130207</v>
       </c>
       <c r="F28">
-        <v>224.9843412375407</v>
+        <v>152.9137724187963</v>
       </c>
       <c r="G28">
-        <v>124.8866225508521</v>
+        <v>84.88094982010524</v>
       </c>
       <c r="H28">
-        <v>27.8653034987764</v>
+        <v>18.93904550936632</v>
       </c>
       <c r="I28">
-        <v>1397.128956076861</v>
+        <v>949.5783486713156</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>766.6209383315856</v>
+        <v>521.0447049368246</v>
       </c>
       <c r="C29">
-        <v>0.4585504287156461</v>
+        <v>0.3116602493910181</v>
       </c>
       <c r="D29">
-        <v>284.7909415720688</v>
+        <v>193.562169646763</v>
       </c>
       <c r="E29">
-        <v>38.70103890728795</v>
+        <v>26.30370550807275</v>
       </c>
       <c r="F29">
-        <v>223.6451487301744</v>
+        <v>152.003571392494</v>
       </c>
       <c r="G29">
-        <v>74.93197353051134</v>
+        <v>50.92856989206315</v>
       </c>
       <c r="H29">
-        <v>43.53953671683814</v>
+        <v>29.59225860838488</v>
       </c>
       <c r="I29">
-        <v>1432.688128217182</v>
+        <v>973.7466402339934</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>960.5563541649989</v>
+        <v>652.8556384336794</v>
       </c>
       <c r="C30">
-        <v>0.2241802095943159</v>
+        <v>0.1523672330356088</v>
       </c>
       <c r="D30">
-        <v>180.8807331606382</v>
+        <v>122.9381347756468</v>
       </c>
       <c r="E30">
-        <v>64.05689198447662</v>
+        <v>43.5371677374997</v>
       </c>
       <c r="F30">
-        <v>194.1829135681155</v>
+        <v>131.9791488138421</v>
       </c>
       <c r="G30">
-        <v>58.28042385706432</v>
+        <v>39.6111099160491</v>
       </c>
       <c r="H30">
-        <v>22.64055909275583</v>
+        <v>15.38797447636014</v>
       </c>
       <c r="I30">
-        <v>1480.822056037644</v>
+        <v>1006.461541386113</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>999.4394449632823</v>
+        <v>679.2830780704253</v>
       </c>
       <c r="C31">
-        <v>0.2955102762834164</v>
+        <v>0.2008477162742117</v>
       </c>
       <c r="D31">
-        <v>227.0630480101629</v>
+        <v>154.326594718365</v>
       </c>
       <c r="E31">
-        <v>93.41630081069502</v>
+        <v>63.49170295052039</v>
       </c>
       <c r="F31">
-        <v>148.6503683176607</v>
+        <v>101.0323139195619</v>
       </c>
       <c r="G31">
-        <v>52.72990729924865</v>
+        <v>35.83862325737778</v>
       </c>
       <c r="H31">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I31">
-        <v>1528.560905552027</v>
+        <v>1038.907922009866</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>790.6228462317606</v>
+        <v>537.357939280495</v>
       </c>
       <c r="C32">
-        <v>0.2139902000673015</v>
+        <v>0.1454414497158084</v>
       </c>
       <c r="D32">
-        <v>192.4263118730195</v>
+        <v>130.7852497613264</v>
       </c>
       <c r="E32">
-        <v>62.72237340146667</v>
+        <v>42.63014340963512</v>
       </c>
       <c r="F32">
-        <v>104.4570155745725</v>
+        <v>70.99568005158405</v>
       </c>
       <c r="G32">
-        <v>41.62887418361738</v>
+        <v>28.29364994003509</v>
       </c>
       <c r="H32">
-        <v>15.67423321806173</v>
+        <v>10.65321309901856</v>
       </c>
       <c r="I32">
-        <v>1207.745644682566</v>
+        <v>820.8613169918099</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>661.9726198868234</v>
+        <v>449.9190031984228</v>
       </c>
       <c r="C33">
-        <v>0.3057002858104307</v>
+        <v>0.2077734995940121</v>
       </c>
       <c r="D33">
-        <v>150.0925232609551</v>
+        <v>102.0124948138346</v>
       </c>
       <c r="E33">
-        <v>85.4091893126355</v>
+        <v>58.04955698333293</v>
       </c>
       <c r="F33">
-        <v>66.9596253683157</v>
+        <v>45.51005131511796</v>
       </c>
       <c r="G33">
-        <v>44.40413246252519</v>
+        <v>30.17989326937076</v>
       </c>
       <c r="H33">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I33">
-        <v>1010.885372045739</v>
+        <v>687.0624634240083</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>543.8832330179628</v>
+        <v>369.6578902275654</v>
       </c>
       <c r="C34">
-        <v>0.2038001905402872</v>
+        <v>0.138515666396008</v>
       </c>
       <c r="D34">
-        <v>100.0616821739701</v>
+        <v>68.0083298758897</v>
       </c>
       <c r="E34">
-        <v>41.37007607330781</v>
+        <v>28.11775416380189</v>
       </c>
       <c r="F34">
-        <v>42.85416023572203</v>
+        <v>29.12643284167549</v>
       </c>
       <c r="G34">
-        <v>22.2020662312626</v>
+        <v>15.08994663468538</v>
       </c>
       <c r="H34">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I34">
-        <v>757.5413437974597</v>
+        <v>514.8736307873554</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>384.5105645608016</v>
+        <v>261.3380141855959</v>
       </c>
       <c r="C35">
-        <v>0.1936101810132728</v>
+        <v>0.1315898830762076</v>
       </c>
       <c r="D35">
-        <v>96.21315593650974</v>
+        <v>65.39262488066318</v>
       </c>
       <c r="E35">
-        <v>22.6868159111688</v>
+        <v>15.41941357369781</v>
       </c>
       <c r="F35">
-        <v>32.14062017679153</v>
+        <v>21.84482463125662</v>
       </c>
       <c r="G35">
-        <v>36.07835762580171</v>
+        <v>24.52116328136373</v>
       </c>
       <c r="H35">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I35">
-        <v>573.5647058607602</v>
+        <v>389.8313207799889</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>241.9392316337628</v>
+        <v>164.4374021841951</v>
       </c>
       <c r="C36">
-        <v>0.3566503334455026</v>
+        <v>0.242402416193014</v>
       </c>
       <c r="D36">
-        <v>38.48526237460389</v>
+        <v>26.15704995226526</v>
       </c>
       <c r="E36">
-        <v>12.01066724708937</v>
+        <v>8.163218950781193</v>
       </c>
       <c r="F36">
-        <v>26.78385014732627</v>
+        <v>18.20402052604719</v>
       </c>
       <c r="G36">
-        <v>24.97732451017042</v>
+        <v>16.97618996402105</v>
       </c>
       <c r="H36">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I36">
-        <v>346.2945677150718</v>
+        <v>235.3639743378382</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>183.8546145153396</v>
+        <v>124.9593750725134</v>
       </c>
       <c r="C37">
-        <v>0.4279804001346029</v>
+        <v>0.2908828994316168</v>
       </c>
       <c r="D37">
-        <v>38.48526237460389</v>
+        <v>26.15704995226526</v>
       </c>
       <c r="E37">
-        <v>5.338074332039719</v>
+        <v>3.628097311458308</v>
       </c>
       <c r="F37">
-        <v>22.76627262522733</v>
+        <v>15.47341744714011</v>
       </c>
       <c r="G37">
-        <v>27.75258278907826</v>
+        <v>18.8624332933567</v>
       </c>
       <c r="H37">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I37">
-        <v>285.5911129111175</v>
+        <v>194.106017353507</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>103.208203970752</v>
+        <v>70.14690767778163</v>
       </c>
       <c r="C38">
-        <v>0.2955102762834164</v>
+        <v>0.2008477162742117</v>
       </c>
       <c r="D38">
-        <v>30.78820989968309</v>
+        <v>20.92563996181221</v>
       </c>
       <c r="E38">
-        <v>2.66903716601986</v>
+        <v>1.814048655729154</v>
       </c>
       <c r="F38">
-        <v>26.78385014732627</v>
+        <v>18.20402052604719</v>
       </c>
       <c r="G38">
-        <v>27.75258278907826</v>
+        <v>18.8624332933567</v>
       </c>
       <c r="H38">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I38">
-        <v>194.9805571864899</v>
+        <v>132.5212785196719</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>69.12549475250367</v>
+        <v>46.98211490977003</v>
       </c>
       <c r="C39">
-        <v>0.2139902000673015</v>
+        <v>0.1454414497158084</v>
       </c>
       <c r="D39">
-        <v>46.18231484952466</v>
+        <v>31.38845994271831</v>
       </c>
       <c r="E39">
-        <v>1.33451858300993</v>
+        <v>0.9070243278645771</v>
       </c>
       <c r="F39">
-        <v>25.44465763995996</v>
+        <v>17.29381949974482</v>
       </c>
       <c r="G39">
-        <v>27.75258278907826</v>
+        <v>18.8624332933567</v>
       </c>
       <c r="H39">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I39">
-        <v>171.7951402828173</v>
+        <v>116.7629837675056</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>69.60553291050715</v>
+        <v>47.30837959664343</v>
       </c>
       <c r="C40">
-        <v>0.1120901047971579</v>
+        <v>0.07618361651780441</v>
       </c>
       <c r="D40">
-        <v>42.33378861206429</v>
+        <v>28.77275494749178</v>
       </c>
       <c r="E40">
-        <v>4.003555749029789</v>
+        <v>2.721072983593731</v>
       </c>
       <c r="F40">
-        <v>28.12304265469259</v>
+        <v>19.11422155234954</v>
       </c>
       <c r="G40">
-        <v>36.07835762580171</v>
+        <v>24.52116328136373</v>
       </c>
       <c r="H40">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I40">
-        <v>183.7395305942397</v>
+        <v>124.8811566666308</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>130.0903408189479</v>
+        <v>88.41773014269222</v>
       </c>
       <c r="C41">
-        <v>0.1120901047971579</v>
+        <v>0.07618361651780441</v>
       </c>
       <c r="D41">
-        <v>53.87936732444544</v>
+        <v>36.61986993317137</v>
       </c>
       <c r="E41">
-        <v>6.672592915049647</v>
+        <v>4.535121639322884</v>
       </c>
       <c r="F41">
-        <v>68.298817875682</v>
+        <v>46.42025234142034</v>
       </c>
       <c r="G41">
-        <v>55.50516557815651</v>
+        <v>37.7248665867134</v>
       </c>
       <c r="H41">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I41">
-        <v>316.2999560857521</v>
+        <v>214.9777146041734</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>337.9468632344622</v>
+        <v>229.6903395588758</v>
       </c>
       <c r="C42">
-        <v>0.1120901047971579</v>
+        <v>0.07618361651780441</v>
       </c>
       <c r="D42">
-        <v>100.0616821739701</v>
+        <v>68.0083298758897</v>
       </c>
       <c r="E42">
-        <v>56.04978048641706</v>
+        <v>38.09502177031224</v>
       </c>
       <c r="F42">
-        <v>135.2584432439977</v>
+        <v>91.9303036565383</v>
       </c>
       <c r="G42">
-        <v>102.6845563195895</v>
+        <v>69.79100318541992</v>
       </c>
       <c r="H42">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I42">
-        <v>746.046067312622</v>
+        <v>507.060704418237</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>503.0799895876656</v>
+        <v>341.9253918433263</v>
       </c>
       <c r="C43">
-        <v>0.05095004763507179</v>
+        <v>0.03462891659900201</v>
       </c>
       <c r="D43">
-        <v>142.3954707860344</v>
+        <v>96.78108482338151</v>
       </c>
       <c r="E43">
-        <v>109.4305238068142</v>
+        <v>74.37599488489529</v>
       </c>
       <c r="F43">
-        <v>164.7206784060566</v>
+        <v>111.9547262351902</v>
       </c>
       <c r="G43">
-        <v>205.3691126391791</v>
+        <v>139.5820063708398</v>
       </c>
       <c r="H43">
-        <v>15.67423321806173</v>
+        <v>10.65321309901856</v>
       </c>
       <c r="I43">
-        <v>1140.720958491447</v>
+        <v>775.3070461732508</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>805.5040291298694</v>
+        <v>547.4721445735704</v>
       </c>
       <c r="C44">
-        <v>0.1732301619592441</v>
+        <v>0.1177383164366068</v>
       </c>
       <c r="D44">
-        <v>180.8807331606382</v>
+        <v>122.9381347756468</v>
       </c>
       <c r="E44">
-        <v>122.7757096369135</v>
+        <v>83.44623816354111</v>
       </c>
       <c r="F44">
-        <v>195.5221060754818</v>
+        <v>132.8893498401445</v>
       </c>
       <c r="G44">
-        <v>149.8639470610227</v>
+        <v>101.8571397841263</v>
       </c>
       <c r="H44">
-        <v>31.34846643612345</v>
+        <v>21.30642619803712</v>
       </c>
       <c r="I44">
-        <v>1486.068221662008</v>
+        <v>1010.027171651503</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>817.5049830799568</v>
+        <v>555.6287617454051</v>
       </c>
       <c r="C45">
-        <v>0.3566503334455026</v>
+        <v>0.242402416193014</v>
       </c>
       <c r="D45">
-        <v>219.3659955352421</v>
+        <v>149.0951847279119</v>
       </c>
       <c r="E45">
-        <v>64.05689198447662</v>
+        <v>43.5371677374997</v>
       </c>
       <c r="F45">
-        <v>223.6451487301744</v>
+        <v>152.003571392494</v>
       </c>
       <c r="G45">
-        <v>169.2907550133773</v>
+        <v>115.060843089476</v>
       </c>
       <c r="H45">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I45">
-        <v>1508.153076426061</v>
+        <v>1025.037453863663</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>701.8157870011136</v>
+        <v>476.9989722089155</v>
       </c>
       <c r="C46">
-        <v>0.5502605144587754</v>
+        <v>0.3739922992692216</v>
       </c>
       <c r="D46">
-        <v>338.6703088965143</v>
+        <v>230.1820395799342</v>
       </c>
       <c r="E46">
-        <v>58.7188176524369</v>
+        <v>39.9090704260414</v>
       </c>
       <c r="F46">
-        <v>245.0722288480353</v>
+        <v>166.5667878133318</v>
       </c>
       <c r="G46">
-        <v>180.3917881290086</v>
+        <v>122.6058164068187</v>
       </c>
       <c r="H46">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I46">
-        <v>1539.151842790956</v>
+        <v>1046.106201488994</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>522.2815159078057</v>
+        <v>354.9759793182625</v>
       </c>
       <c r="C47">
-        <v>0.4177903906075888</v>
+        <v>0.2839571161118165</v>
       </c>
       <c r="D47">
-        <v>196.2748381104797</v>
+        <v>133.4009547565528</v>
       </c>
       <c r="E47">
-        <v>25.35585307718867</v>
+        <v>17.23346222942697</v>
       </c>
       <c r="F47">
-        <v>216.9491861933428</v>
+        <v>147.4525662609822</v>
       </c>
       <c r="G47">
-        <v>122.1113642719443</v>
+        <v>82.99470649076959</v>
       </c>
       <c r="H47">
-        <v>8.707907343367626</v>
+        <v>5.918451721676975</v>
       </c>
       <c r="I47">
-        <v>1092.098455294736</v>
+        <v>742.2600778937829</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>548.2035764399942</v>
+        <v>372.5942724094261</v>
       </c>
       <c r="C48">
-        <v>0.4177903906075888</v>
+        <v>0.2839571161118165</v>
       </c>
       <c r="D48">
-        <v>173.1836806857174</v>
+        <v>117.7067247851937</v>
       </c>
       <c r="E48">
-        <v>25.35585307718867</v>
+        <v>17.23346222942697</v>
       </c>
       <c r="F48">
-        <v>203.5572611196797</v>
+        <v>138.3505559979586</v>
       </c>
       <c r="G48">
-        <v>108.2350728774051</v>
+        <v>73.56348984409121</v>
       </c>
       <c r="H48">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I48">
-        <v>1076.369049277328</v>
+        <v>731.5693658255623</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>553.0039580200294</v>
+        <v>375.8569192781603</v>
       </c>
       <c r="C49">
-        <v>0.3260803048644595</v>
+        <v>0.2216250662336128</v>
       </c>
       <c r="D49">
-        <v>184.7292593980986</v>
+        <v>125.5538397708733</v>
       </c>
       <c r="E49">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F49">
-        <v>160.7031008839577</v>
+        <v>109.2241231562831</v>
       </c>
       <c r="G49">
-        <v>99.90929804068166</v>
+        <v>67.90475985608418</v>
       </c>
       <c r="H49">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I49">
-        <v>1034.884101422525</v>
+        <v>703.3735374395446</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_NOx.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>487.1131775019905</v>
+        <v>382.7717720319521</v>
       </c>
       <c r="C2">
-        <v>0.3324375993504192</v>
+        <v>0.4891204572966892</v>
       </c>
       <c r="D2">
-        <v>167.4051196944977</v>
+        <v>246.0222084671484</v>
       </c>
       <c r="E2">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F2">
-        <v>182.9504062867742</v>
+        <v>268.6418121269633</v>
       </c>
       <c r="G2">
-        <v>64.13227319741284</v>
+        <v>94.25390937880856</v>
       </c>
       <c r="H2">
-        <v>15.38797447636014</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I2">
-        <v>933.6478266579481</v>
+        <v>1038.840716049104</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>503.1001471587874</v>
+        <v>395.3342749318619</v>
       </c>
       <c r="C3">
-        <v>0.3670665159494212</v>
+        <v>0.5400705049317611</v>
       </c>
       <c r="D3">
-        <v>170.0208246897242</v>
+        <v>249.8663054744476</v>
       </c>
       <c r="E3">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F3">
-        <v>176.5789991026577</v>
+        <v>259.2861271275169</v>
       </c>
       <c r="G3">
-        <v>50.92856989206315</v>
+        <v>74.84869274199508</v>
       </c>
       <c r="H3">
-        <v>14.20428413202475</v>
+        <v>20.8989776240823</v>
       </c>
       <c r="I3">
-        <v>931.526329392769</v>
+        <v>1024.795782899014</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>509.6254408962558</v>
+        <v>400.4618271359066</v>
       </c>
       <c r="C4">
-        <v>0.3393633826702196</v>
+        <v>0.4993104668237037</v>
       </c>
       <c r="D4">
-        <v>172.6365296849507</v>
+        <v>253.7104024817468</v>
       </c>
       <c r="E4">
-        <v>15.41941357369781</v>
+        <v>22.6868159111688</v>
       </c>
       <c r="F4">
-        <v>164.7463857607271</v>
+        <v>241.9112835571163</v>
       </c>
       <c r="G4">
-        <v>50.92856989206315</v>
+        <v>74.84869274199508</v>
       </c>
       <c r="H4">
-        <v>13.02059378768935</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I4">
-        <v>926.7162969780543</v>
+        <v>1013.275728450166</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>551.0610561291778</v>
+        <v>433.0217836315916</v>
       </c>
       <c r="C5">
-        <v>0.2839571161118165</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D5">
-        <v>180.4836446706304</v>
+        <v>265.2426935036443</v>
       </c>
       <c r="E5">
-        <v>26.30370550807275</v>
+        <v>38.70103890728795</v>
       </c>
       <c r="F5">
-        <v>162.01578268182</v>
+        <v>237.9017042716392</v>
       </c>
       <c r="G5">
-        <v>49.04232656272747</v>
+        <v>72.07651893673595</v>
       </c>
       <c r="H5">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I5">
-        <v>981.0273761118942</v>
+        <v>1064.777344328242</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>629.0383162919208</v>
+        <v>494.2960324699286</v>
       </c>
       <c r="C6">
-        <v>0.2701055494722157</v>
+        <v>0.39741037155356</v>
       </c>
       <c r="D6">
-        <v>164.7894146992712</v>
+        <v>242.1781114598492</v>
       </c>
       <c r="E6">
-        <v>58.04955698333293</v>
+        <v>85.4091893126355</v>
       </c>
       <c r="F6">
-        <v>136.530153945354</v>
+        <v>200.4789642738533</v>
       </c>
       <c r="G6">
-        <v>24.52116328136373</v>
+        <v>36.03825946836798</v>
       </c>
       <c r="H6">
-        <v>10.65321309901856</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I6">
-        <v>1023.851923849733</v>
+        <v>1074.47220057425</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>671.4527255854637</v>
+        <v>527.6251217962205</v>
       </c>
       <c r="C7">
-        <v>0.103886749797006</v>
+        <v>0.1528501429052154</v>
       </c>
       <c r="D7">
-        <v>112.4753147947407</v>
+        <v>165.2961713138652</v>
       </c>
       <c r="E7">
-        <v>60.77062996692668</v>
+        <v>89.41274506166528</v>
       </c>
       <c r="F7">
-        <v>88.28949955132886</v>
+        <v>129.6430635637584</v>
       </c>
       <c r="G7">
-        <v>24.52116328136373</v>
+        <v>36.03825946836798</v>
       </c>
       <c r="H7">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I7">
-        <v>969.4501233729746</v>
+        <v>965.5840260335179</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>510.930499643749</v>
+        <v>401.4873375767158</v>
       </c>
       <c r="C8">
-        <v>0.1315898830762076</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D8">
-        <v>154.326594718365</v>
+        <v>226.8017234306525</v>
       </c>
       <c r="E8">
-        <v>36.28097311458307</v>
+        <v>53.38074332039717</v>
       </c>
       <c r="F8">
-        <v>65.53447389376991</v>
+        <v>96.22990285144955</v>
       </c>
       <c r="G8">
-        <v>22.63491995202807</v>
+        <v>33.26608566310889</v>
       </c>
       <c r="H8">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I8">
-        <v>792.2064318942421</v>
+        <v>814.8425659606843</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>406.8520645311335</v>
+        <v>319.7028799221996</v>
       </c>
       <c r="C9">
-        <v>0.138515666396008</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D9">
-        <v>96.78108482338151</v>
+        <v>142.2315892700703</v>
       </c>
       <c r="E9">
-        <v>68.93384891770786</v>
+        <v>101.4234123087547</v>
       </c>
       <c r="F9">
-        <v>30.03663386797786</v>
+        <v>44.10537214024772</v>
       </c>
       <c r="G9">
-        <v>26.40740661069941</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="H9">
-        <v>3.551071033006187</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I9">
-        <v>632.7006254503024</v>
+        <v>651.7022315114601</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>337.0314215402256</v>
+        <v>264.8380713389191</v>
       </c>
       <c r="C10">
-        <v>0.06925783319800402</v>
+        <v>0.1019000952701436</v>
       </c>
       <c r="D10">
-        <v>81.0868548520223</v>
+        <v>119.167007226275</v>
       </c>
       <c r="E10">
-        <v>34.46692445885393</v>
+        <v>50.71170615437733</v>
       </c>
       <c r="F10">
-        <v>28.21623181537314</v>
+        <v>41.43231928326301</v>
       </c>
       <c r="G10">
-        <v>32.06613659870642</v>
+        <v>47.12695468940428</v>
       </c>
       <c r="H10">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I10">
-        <v>514.1205174427148</v>
+        <v>525.1195402561824</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>239.478280165078</v>
+        <v>188.1811658884478</v>
       </c>
       <c r="C11">
-        <v>0.138515666396008</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D11">
-        <v>41.85127992362442</v>
+        <v>61.5055521167871</v>
       </c>
       <c r="E11">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F11">
-        <v>30.94683489428023</v>
+        <v>45.44189856874007</v>
       </c>
       <c r="G11">
-        <v>22.63491995202807</v>
+        <v>33.26608566310889</v>
       </c>
       <c r="H11">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I11">
-        <v>356.1110298803106</v>
+        <v>359.5861627964969</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>147.1453737799048</v>
+        <v>115.6263022012125</v>
       </c>
       <c r="C12">
-        <v>0.138515666396008</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D12">
-        <v>23.54134495703873</v>
+        <v>34.59687306569275</v>
       </c>
       <c r="E12">
-        <v>8.163218950781193</v>
+        <v>12.01066724708937</v>
       </c>
       <c r="F12">
-        <v>17.29381949974482</v>
+        <v>25.39400214135474</v>
       </c>
       <c r="G12">
-        <v>16.97618996402105</v>
+        <v>24.94956424733166</v>
       </c>
       <c r="H12">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I12">
-        <v>215.6258435065573</v>
+        <v>216.2643720305684</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>104.404699799489</v>
+        <v>82.04083526471835</v>
       </c>
       <c r="C13">
-        <v>0.2077734995940121</v>
+        <v>0.3057002858104307</v>
       </c>
       <c r="D13">
-        <v>26.15704995226526</v>
+        <v>38.44097007299196</v>
       </c>
       <c r="E13">
-        <v>5.442145967187463</v>
+        <v>8.007111498059578</v>
       </c>
       <c r="F13">
-        <v>18.20402052604719</v>
+        <v>26.73052856984708</v>
       </c>
       <c r="G13">
-        <v>20.7486766226924</v>
+        <v>30.49391185784982</v>
       </c>
       <c r="I13">
-        <v>175.1643663672753</v>
+        <v>186.0190575492772</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>68.84184893028801</v>
+        <v>54.09567575267371</v>
       </c>
       <c r="C14">
-        <v>0.2216250662336128</v>
+        <v>0.3260803048644595</v>
       </c>
       <c r="D14">
-        <v>15.69422997135916</v>
+        <v>23.06458204379516</v>
       </c>
       <c r="E14">
-        <v>2.721072983593731</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F14">
-        <v>20.02442257865191</v>
+        <v>29.40358142683182</v>
       </c>
       <c r="G14">
-        <v>30.17989326937076</v>
+        <v>44.35478088414519</v>
       </c>
       <c r="H14">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I14">
-        <v>138.8667831438326</v>
+        <v>156.9898376300137</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>52.5286145866179</v>
+        <v>41.27679524256146</v>
       </c>
       <c r="C15">
-        <v>0.1662187996752096</v>
+        <v>0.2445602286483446</v>
       </c>
       <c r="D15">
-        <v>28.77275494749178</v>
+        <v>42.28506708029117</v>
       </c>
       <c r="E15">
-        <v>3.628097311458308</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F15">
-        <v>15.47341744714011</v>
+        <v>22.72094928437004</v>
       </c>
       <c r="G15">
-        <v>26.40740661069941</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="H15">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I15">
-        <v>129.3438903917535</v>
+        <v>154.1590423788849</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>47.96090897039027</v>
+        <v>37.68750869973005</v>
       </c>
       <c r="C16">
-        <v>0.06233204987820361</v>
+        <v>0.09171008574312924</v>
       </c>
       <c r="D16">
-        <v>34.00416493794485</v>
+        <v>49.97326109488952</v>
       </c>
       <c r="E16">
-        <v>2.721072983593731</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F16">
-        <v>14.56321642083775</v>
+        <v>21.38442285587768</v>
       </c>
       <c r="G16">
-        <v>22.63491995202807</v>
+        <v>33.26608566310889</v>
       </c>
       <c r="H16">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I16">
-        <v>123.1303056590083</v>
+        <v>148.1481256170526</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>96.57434731452724</v>
+        <v>75.88777261986452</v>
       </c>
       <c r="C17">
-        <v>0.09003518315740525</v>
+        <v>0.1324701238511867</v>
       </c>
       <c r="D17">
-        <v>52.31409990453052</v>
+        <v>76.88194014598392</v>
       </c>
       <c r="E17">
-        <v>2.721072983593731</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F17">
-        <v>33.67743797318731</v>
+        <v>49.45147785421712</v>
       </c>
       <c r="G17">
-        <v>33.95237992804209</v>
+        <v>49.89912849466332</v>
       </c>
       <c r="H17">
-        <v>3.551071033006187</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I17">
-        <v>222.8804443200445</v>
+        <v>261.4810893936305</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>212.7245758414589</v>
+        <v>167.1582018518638</v>
       </c>
       <c r="C18">
-        <v>0.0554062665584032</v>
+        <v>0.08152007621611487</v>
       </c>
       <c r="D18">
-        <v>83.70255984724884</v>
+        <v>123.0111042335742</v>
       </c>
       <c r="E18">
-        <v>43.5371677374997</v>
+        <v>64.05689198447662</v>
       </c>
       <c r="F18">
-        <v>77.36708723570057</v>
+        <v>113.6047464218502</v>
       </c>
       <c r="G18">
-        <v>62.24602986807718</v>
+        <v>91.48173557354953</v>
       </c>
       <c r="H18">
-        <v>3.551071033006187</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I18">
-        <v>483.1838978295498</v>
+        <v>564.618944547551</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>374.5518605306665</v>
+        <v>294.3214965121771</v>
       </c>
       <c r="C19">
-        <v>0.0969609664772056</v>
+        <v>0.142660133378201</v>
       </c>
       <c r="D19">
-        <v>154.326594718365</v>
+        <v>226.8017234306525</v>
       </c>
       <c r="E19">
-        <v>89.79540845859312</v>
+        <v>132.117339717983</v>
       </c>
       <c r="F19">
-        <v>131.0689477875398</v>
+        <v>192.4598057028991</v>
       </c>
       <c r="G19">
-        <v>111.2883564308046</v>
+        <v>163.5582545102855</v>
       </c>
       <c r="H19">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I19">
-        <v>872.9650323358003</v>
+        <v>1026.817094694111</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>507.3415880881417</v>
+        <v>398.6671838644911</v>
       </c>
       <c r="C20">
-        <v>0.103886749797006</v>
+        <v>0.1528501429052154</v>
       </c>
       <c r="D20">
-        <v>136.0166597517794</v>
+        <v>199.8930443795581</v>
       </c>
       <c r="E20">
-        <v>78.00409219635361</v>
+        <v>114.7685981388539</v>
       </c>
       <c r="F20">
-        <v>127.4281436823303</v>
+        <v>187.1136999889296</v>
       </c>
       <c r="G20">
-        <v>96.19840979611928</v>
+        <v>141.3808640682128</v>
       </c>
       <c r="H20">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I20">
-        <v>956.9296837078753</v>
+        <v>1059.392055269686</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>402.284358914906</v>
+        <v>316.113593379368</v>
       </c>
       <c r="C21">
-        <v>0.1108125331168064</v>
+        <v>0.1630401524322297</v>
       </c>
       <c r="D21">
-        <v>68.0083298758897</v>
+        <v>99.94652218977905</v>
       </c>
       <c r="E21">
-        <v>32.65287580312477</v>
+        <v>48.04266898835746</v>
       </c>
       <c r="F21">
-        <v>100.1221128932596</v>
+        <v>147.0179071341591</v>
       </c>
       <c r="G21">
-        <v>69.79100318541992</v>
+        <v>102.5704307945858</v>
       </c>
       <c r="H21">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I21">
-        <v>677.7042545830584</v>
+        <v>720.8204885133756</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>476.3464428351684</v>
+        <v>374.3113108952777</v>
       </c>
       <c r="C22">
-        <v>0.34628916599002</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D22">
-        <v>211.8721046133486</v>
+        <v>311.3718575912347</v>
       </c>
       <c r="E22">
-        <v>33.55990013098935</v>
+        <v>49.37718757136737</v>
       </c>
       <c r="F22">
-        <v>189.3218134708908</v>
+        <v>277.9974971264098</v>
       </c>
       <c r="G22">
-        <v>126.37830306549</v>
+        <v>185.735644952358</v>
       </c>
       <c r="H22">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I22">
-        <v>1042.559614659219</v>
+        <v>1206.269324487692</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>428.0592691779049</v>
+        <v>336.3674245853453</v>
       </c>
       <c r="C23">
-        <v>0.360140732629621</v>
+        <v>0.5298804954047467</v>
       </c>
       <c r="D23">
-        <v>172.6365296849507</v>
+        <v>253.7104024817468</v>
       </c>
       <c r="E23">
-        <v>20.86155954088528</v>
+        <v>30.69392740922837</v>
       </c>
       <c r="F23">
-        <v>204.7952309180309</v>
+        <v>300.7184464107797</v>
       </c>
       <c r="G23">
-        <v>96.19840979611928</v>
+        <v>141.3808640682128</v>
       </c>
       <c r="H23">
-        <v>5.918451721676975</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I23">
-        <v>928.8295915721976</v>
+        <v>1072.108852794086</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>449.2664738246758</v>
+        <v>353.0319692484914</v>
       </c>
       <c r="C24">
-        <v>0.360140732629621</v>
+        <v>0.5298804954047467</v>
       </c>
       <c r="D24">
-        <v>154.326594718365</v>
+        <v>226.8017234306525</v>
       </c>
       <c r="E24">
-        <v>19.9545352130207</v>
+        <v>29.35940882621845</v>
       </c>
       <c r="F24">
-        <v>191.1422155234955</v>
+        <v>280.6705499833945</v>
       </c>
       <c r="G24">
-        <v>84.88094982010524</v>
+        <v>124.7478212366584</v>
       </c>
       <c r="H24">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I24">
-        <v>911.7678132756458</v>
+        <v>1032.557167907555</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>453.1816500671569</v>
+        <v>356.1085005709183</v>
       </c>
       <c r="C25">
-        <v>0.2770313327920161</v>
+        <v>0.4076003810805743</v>
       </c>
       <c r="D25">
-        <v>162.1737097040446</v>
+        <v>238.3340144525501</v>
       </c>
       <c r="E25">
-        <v>19.04751088515612</v>
+        <v>28.02489024320853</v>
       </c>
       <c r="F25">
-        <v>151.0933703661917</v>
+        <v>221.8633871297309</v>
       </c>
       <c r="G25">
-        <v>79.22221983209819</v>
+        <v>116.4312998208812</v>
       </c>
       <c r="H25">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I25">
-        <v>873.2813245977873</v>
+        <v>973.3607628790842</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>466.2322375420931</v>
+        <v>366.3636049790082</v>
       </c>
       <c r="C26">
-        <v>0.2978086827514173</v>
+        <v>0.4381704096616175</v>
       </c>
       <c r="D26">
-        <v>143.863774737459</v>
+        <v>211.4253354014556</v>
       </c>
       <c r="E26">
-        <v>10.88429193437493</v>
+        <v>16.01422299611916</v>
       </c>
       <c r="F26">
-        <v>192.9626175761002</v>
+        <v>283.3436028403792</v>
       </c>
       <c r="G26">
-        <v>105.6296264427976</v>
+        <v>155.2417330945082</v>
       </c>
       <c r="H26">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I26">
-        <v>929.3398796702594</v>
+        <v>1046.75932147052</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>489.3970303101044</v>
+        <v>384.5664153033676</v>
       </c>
       <c r="C27">
-        <v>0.2354766328732136</v>
+        <v>0.3464603239184881</v>
       </c>
       <c r="D27">
-        <v>201.4092846324424</v>
+        <v>295.9954695620378</v>
       </c>
       <c r="E27">
-        <v>21.76858386874985</v>
+        <v>32.02844599223831</v>
       </c>
       <c r="F27">
-        <v>162.01578268182</v>
+        <v>237.9017042716392</v>
       </c>
       <c r="G27">
-        <v>41.49735324538479</v>
+        <v>60.98782371569965</v>
       </c>
       <c r="H27">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I27">
-        <v>924.6093437817225</v>
+        <v>1024.017389449616</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>473.7363253401813</v>
+        <v>372.2602900136599</v>
       </c>
       <c r="C28">
-        <v>0.360140732629621</v>
+        <v>0.5298804954047467</v>
       </c>
       <c r="D28">
-        <v>198.7935796372159</v>
+        <v>292.1513725547388</v>
       </c>
       <c r="E28">
-        <v>19.9545352130207</v>
+        <v>29.35940882621845</v>
       </c>
       <c r="F28">
-        <v>152.9137724187963</v>
+        <v>224.5364399867155</v>
       </c>
       <c r="G28">
-        <v>84.88094982010524</v>
+        <v>124.7478212366584</v>
       </c>
       <c r="H28">
-        <v>18.93904550936632</v>
+        <v>27.8653034987764</v>
       </c>
       <c r="I28">
-        <v>949.5783486713156</v>
+        <v>1071.450516612172</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>521.0447049368246</v>
+        <v>409.4350434929851</v>
       </c>
       <c r="C29">
-        <v>0.3116602493910181</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D29">
-        <v>193.562169646763</v>
+        <v>284.4631785401406</v>
       </c>
       <c r="E29">
-        <v>26.30370550807275</v>
+        <v>38.70103890728795</v>
       </c>
       <c r="F29">
-        <v>152.003571392494</v>
+        <v>223.1999135582233</v>
       </c>
       <c r="G29">
-        <v>50.92856989206315</v>
+        <v>74.84869274199508</v>
       </c>
       <c r="H29">
-        <v>29.59225860838488</v>
+        <v>43.53953671683814</v>
       </c>
       <c r="I29">
-        <v>973.7466402339934</v>
+        <v>1074.645954386186</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>652.8556384336794</v>
+        <v>513.0115980146923</v>
       </c>
       <c r="C30">
-        <v>0.1523672330356088</v>
+        <v>0.2241802095943159</v>
       </c>
       <c r="D30">
-        <v>122.9381347756468</v>
+        <v>180.6725593430622</v>
       </c>
       <c r="E30">
-        <v>43.5371677374997</v>
+        <v>64.05689198447662</v>
       </c>
       <c r="F30">
-        <v>131.9791488138421</v>
+        <v>193.7963321313914</v>
       </c>
       <c r="G30">
-        <v>39.6111099160491</v>
+        <v>58.21564991044059</v>
       </c>
       <c r="H30">
-        <v>15.38797447636014</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I30">
-        <v>1006.461541386113</v>
+        <v>1032.617770686413</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>679.2830780704253</v>
+        <v>533.778184441074</v>
       </c>
       <c r="C31">
-        <v>0.2008477162742117</v>
+        <v>0.2955102762834164</v>
       </c>
       <c r="D31">
-        <v>154.326594718365</v>
+        <v>226.8017234306525</v>
       </c>
       <c r="E31">
-        <v>63.49170295052039</v>
+        <v>93.41630081069502</v>
       </c>
       <c r="F31">
-        <v>101.0323139195619</v>
+        <v>148.3544335626514</v>
       </c>
       <c r="G31">
-        <v>35.83862325737778</v>
+        <v>52.67130229992242</v>
       </c>
       <c r="H31">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I31">
-        <v>1038.907922009866</v>
+        <v>1062.283780695973</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>537.357939280495</v>
+        <v>422.2539240030976</v>
       </c>
       <c r="C32">
-        <v>0.1454414497158084</v>
+        <v>0.2139902000673015</v>
       </c>
       <c r="D32">
-        <v>130.7852497613264</v>
+        <v>192.2048503649598</v>
       </c>
       <c r="E32">
-        <v>42.63014340963512</v>
+        <v>62.72237340146667</v>
       </c>
       <c r="F32">
-        <v>70.99568005158405</v>
+        <v>104.2490614224037</v>
       </c>
       <c r="G32">
-        <v>28.29364994003509</v>
+        <v>41.58260707888614</v>
       </c>
       <c r="H32">
-        <v>10.65321309901856</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I32">
-        <v>820.8613169918099</v>
+        <v>838.9010396889429</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>449.9190031984228</v>
+        <v>353.5447244688957</v>
       </c>
       <c r="C33">
-        <v>0.2077734995940121</v>
+        <v>0.3057002858104307</v>
       </c>
       <c r="D33">
-        <v>102.0124948138346</v>
+        <v>149.9197832846685</v>
       </c>
       <c r="E33">
-        <v>58.04955698333293</v>
+        <v>85.4091893126355</v>
       </c>
       <c r="F33">
-        <v>45.51005131511796</v>
+        <v>66.82632142461772</v>
       </c>
       <c r="G33">
-        <v>30.17989326937076</v>
+        <v>44.35478088414519</v>
       </c>
       <c r="H33">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I33">
-        <v>687.0624634240083</v>
+        <v>702.1020811294466</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>369.6578902275654</v>
+        <v>290.4758323591435</v>
       </c>
       <c r="C34">
-        <v>0.138515666396008</v>
+        <v>0.2038001905402872</v>
       </c>
       <c r="D34">
-        <v>68.0083298758897</v>
+        <v>99.94652218977905</v>
       </c>
       <c r="E34">
-        <v>28.11775416380189</v>
+        <v>41.37007607330781</v>
       </c>
       <c r="F34">
-        <v>29.12643284167549</v>
+        <v>42.76884571175535</v>
       </c>
       <c r="G34">
-        <v>15.08994663468538</v>
+        <v>22.1773904420726</v>
       </c>
       <c r="H34">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I34">
-        <v>514.8736307873554</v>
+        <v>503.9087928412927</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>261.3380141855959</v>
+        <v>205.3584657719983</v>
       </c>
       <c r="C35">
-        <v>0.1315898830762076</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D35">
-        <v>65.39262488066318</v>
+        <v>96.10242518247989</v>
       </c>
       <c r="E35">
-        <v>15.41941357369781</v>
+        <v>22.6868159111688</v>
       </c>
       <c r="F35">
-        <v>21.84482463125662</v>
+        <v>32.07663428381652</v>
       </c>
       <c r="G35">
-        <v>24.52116328136373</v>
+        <v>36.03825946836798</v>
       </c>
       <c r="H35">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I35">
-        <v>389.8313207799889</v>
+        <v>394.1977922675183</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>164.4374021841951</v>
+        <v>129.2143155419315</v>
       </c>
       <c r="C36">
-        <v>0.242402416193014</v>
+        <v>0.3566503334455026</v>
       </c>
       <c r="D36">
-        <v>26.15704995226526</v>
+        <v>38.44097007299196</v>
       </c>
       <c r="E36">
-        <v>8.163218950781193</v>
+        <v>12.01066724708937</v>
       </c>
       <c r="F36">
-        <v>18.20402052604719</v>
+        <v>26.73052856984708</v>
       </c>
       <c r="G36">
-        <v>16.97618996402105</v>
+        <v>24.94956424733166</v>
       </c>
       <c r="H36">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I36">
-        <v>235.3639743378382</v>
+        <v>233.4442774813106</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>124.9593750725134</v>
+        <v>98.19262470745984</v>
       </c>
       <c r="C37">
-        <v>0.2908828994316168</v>
+        <v>0.4279804001346029</v>
       </c>
       <c r="D37">
-        <v>26.15704995226526</v>
+        <v>38.44097007299196</v>
       </c>
       <c r="E37">
-        <v>3.628097311458308</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F37">
-        <v>15.47341744714011</v>
+        <v>22.72094928437004</v>
       </c>
       <c r="G37">
-        <v>18.8624332933567</v>
+        <v>27.72173805259076</v>
       </c>
       <c r="H37">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I37">
-        <v>194.106017353507</v>
+        <v>199.808662724281</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>70.14690767778163</v>
+        <v>55.12118619348268</v>
       </c>
       <c r="C38">
-        <v>0.2008477162742117</v>
+        <v>0.2955102762834164</v>
       </c>
       <c r="D38">
-        <v>20.92563996181221</v>
+        <v>30.75277605839355</v>
       </c>
       <c r="E38">
-        <v>1.814048655729154</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F38">
-        <v>18.20402052604719</v>
+        <v>26.73052856984708</v>
       </c>
       <c r="G38">
-        <v>18.8624332933567</v>
+        <v>27.72173805259076</v>
       </c>
       <c r="H38">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I38">
-        <v>132.5212785196719</v>
+        <v>146.7739392539644</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>46.98211490977003</v>
+        <v>36.9183758691233</v>
       </c>
       <c r="C39">
-        <v>0.1454414497158084</v>
+        <v>0.2139902000673015</v>
       </c>
       <c r="D39">
-        <v>31.38845994271831</v>
+        <v>46.12916408759032</v>
       </c>
       <c r="E39">
-        <v>0.9070243278645771</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F39">
-        <v>17.29381949974482</v>
+        <v>25.39400214135474</v>
       </c>
       <c r="G39">
-        <v>18.8624332933567</v>
+        <v>27.72173805259076</v>
       </c>
       <c r="H39">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I39">
-        <v>116.7629837675056</v>
+        <v>139.4533704024099</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>47.30837959664343</v>
+        <v>37.17475347932551</v>
       </c>
       <c r="C40">
-        <v>0.07618361651780441</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D40">
-        <v>28.77275494749178</v>
+        <v>42.28506708029117</v>
       </c>
       <c r="E40">
-        <v>2.721072983593731</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F40">
-        <v>19.11422155234954</v>
+        <v>28.06705499833944</v>
       </c>
       <c r="G40">
-        <v>24.52116328136373</v>
+        <v>36.03825946836798</v>
       </c>
       <c r="H40">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I40">
-        <v>124.8811566666308</v>
+        <v>151.1639438174981</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>88.41773014269222</v>
+        <v>69.47833236480838</v>
       </c>
       <c r="C41">
-        <v>0.07618361651780441</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D41">
-        <v>36.61986993317137</v>
+        <v>53.81735810218872</v>
       </c>
       <c r="E41">
-        <v>4.535121639322884</v>
+        <v>6.672592915049647</v>
       </c>
       <c r="F41">
-        <v>46.42025234142034</v>
+        <v>68.16284785311008</v>
       </c>
       <c r="G41">
-        <v>37.7248665867134</v>
+        <v>55.44347610518151</v>
       </c>
       <c r="H41">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I41">
-        <v>214.9777146041734</v>
+        <v>255.428278913809</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>229.6903395588758</v>
+        <v>180.4898375823805</v>
       </c>
       <c r="C42">
-        <v>0.07618361651780441</v>
+        <v>0.1120901047971579</v>
       </c>
       <c r="D42">
-        <v>68.0083298758897</v>
+        <v>99.94652218977905</v>
       </c>
       <c r="E42">
-        <v>38.09502177031224</v>
+        <v>56.04978048641706</v>
       </c>
       <c r="F42">
-        <v>91.9303036565383</v>
+        <v>134.9891692777279</v>
       </c>
       <c r="G42">
-        <v>69.79100318541992</v>
+        <v>102.5704307945858</v>
       </c>
       <c r="H42">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I42">
-        <v>507.060704418237</v>
+        <v>588.0904821850755</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>341.9253918433263</v>
+        <v>268.6837354919527</v>
       </c>
       <c r="C43">
-        <v>0.03462891659900201</v>
+        <v>0.05095004763507179</v>
       </c>
       <c r="D43">
-        <v>96.78108482338151</v>
+        <v>142.2315892700703</v>
       </c>
       <c r="E43">
-        <v>74.37599488489529</v>
+        <v>109.4305238068142</v>
       </c>
       <c r="F43">
-        <v>111.9547262351902</v>
+        <v>164.3927507045597</v>
       </c>
       <c r="G43">
-        <v>139.5820063708398</v>
+        <v>205.1408615891715</v>
       </c>
       <c r="H43">
-        <v>10.65321309901856</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I43">
-        <v>775.3070461732508</v>
+        <v>905.6046441282652</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>547.4721445735704</v>
+        <v>430.2016299193668</v>
       </c>
       <c r="C44">
-        <v>0.1177383164366068</v>
+        <v>0.1732301619592441</v>
       </c>
       <c r="D44">
-        <v>122.9381347756468</v>
+        <v>180.6725593430622</v>
       </c>
       <c r="E44">
-        <v>83.44623816354111</v>
+        <v>122.7757096369135</v>
       </c>
       <c r="F44">
-        <v>132.8893498401445</v>
+        <v>195.1328585598838</v>
       </c>
       <c r="G44">
-        <v>101.8571397841263</v>
+        <v>149.6973854839902</v>
       </c>
       <c r="H44">
-        <v>21.30642619803712</v>
+        <v>31.34846643612345</v>
       </c>
       <c r="I44">
-        <v>1010.027171651503</v>
+        <v>1110.001839541299</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>555.6287617454051</v>
+        <v>436.6110701744233</v>
       </c>
       <c r="C45">
-        <v>0.242402416193014</v>
+        <v>0.3566503334455026</v>
       </c>
       <c r="D45">
-        <v>149.0951847279119</v>
+        <v>219.1135294160542</v>
       </c>
       <c r="E45">
-        <v>43.5371677374997</v>
+        <v>64.05689198447662</v>
       </c>
       <c r="F45">
-        <v>152.003571392494</v>
+        <v>223.1999135582233</v>
       </c>
       <c r="G45">
-        <v>115.060843089476</v>
+        <v>169.1026021208036</v>
       </c>
       <c r="H45">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I45">
-        <v>1025.037453863663</v>
+        <v>1126.373309336815</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>476.9989722089155</v>
+        <v>374.8240661156822</v>
       </c>
       <c r="C46">
-        <v>0.3739922992692216</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D46">
-        <v>230.1820395799342</v>
+        <v>338.2805366423294</v>
       </c>
       <c r="E46">
-        <v>39.9090704260414</v>
+        <v>58.7188176524369</v>
       </c>
       <c r="F46">
-        <v>166.5667878133318</v>
+        <v>244.584336414101</v>
       </c>
       <c r="G46">
-        <v>122.6058164068187</v>
+        <v>180.1912973418399</v>
       </c>
       <c r="H46">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I46">
-        <v>1046.106201488994</v>
+        <v>1211.081966430236</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>354.9759793182625</v>
+        <v>278.9388399000429</v>
       </c>
       <c r="C47">
-        <v>0.2839571161118165</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D47">
-        <v>133.4009547565528</v>
+        <v>196.0489473722589</v>
       </c>
       <c r="E47">
-        <v>17.23346222942697</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F47">
-        <v>147.4525662609822</v>
+        <v>216.5172814157615</v>
       </c>
       <c r="G47">
-        <v>82.99470649076959</v>
+        <v>121.9756474313993</v>
       </c>
       <c r="H47">
-        <v>5.918451721676975</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I47">
-        <v>742.2600778937829</v>
+        <v>847.9622669306264</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>372.5942724094261</v>
+        <v>292.7832308509635</v>
       </c>
       <c r="C48">
-        <v>0.2839571161118165</v>
+        <v>0.4177903906075888</v>
       </c>
       <c r="D48">
-        <v>117.7067247851937</v>
+        <v>172.9843653284637</v>
       </c>
       <c r="E48">
-        <v>17.23346222942697</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F48">
-        <v>138.3505559979586</v>
+        <v>203.1520171308379</v>
       </c>
       <c r="G48">
-        <v>73.56348984409121</v>
+        <v>108.1147784051039</v>
       </c>
       <c r="H48">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I48">
-        <v>731.5693658255623</v>
+        <v>820.2238498699007</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>375.8569192781603</v>
+        <v>295.3470069529864</v>
       </c>
       <c r="C49">
-        <v>0.2216250662336128</v>
+        <v>0.3260803048644595</v>
       </c>
       <c r="D49">
-        <v>125.5538397708733</v>
+        <v>184.5166563503613</v>
       </c>
       <c r="E49">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F49">
-        <v>109.2241231562831</v>
+        <v>160.3831714190826</v>
       </c>
       <c r="G49">
-        <v>67.90475985608418</v>
+        <v>99.79825698932665</v>
       </c>
       <c r="H49">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I49">
-        <v>703.3735374395446</v>
+        <v>776.5835767915148</v>
       </c>
     </row>
   </sheetData>
